--- a/CargoUIAutomationNew/src/test/resources/TestCasesMapping.xlsx
+++ b/CargoUIAutomationNew/src/test/resources/TestCasesMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalFiles\p57448\CargoUIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p57448\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E82DF6-2203-43C5-AAC9-6C22D9F86008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{842A833B-A32B-4578-9E8D-7583EEC22A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{1AB005B2-AFEC-3B46-93EF-50FA3BE3C5FF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{1AB005B2-AFEC-3B46-93EF-50FA3BE3C5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="14" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5264" uniqueCount="425">
   <si>
     <t>LoginCredentials</t>
   </si>
@@ -912,9 +912,6 @@
     <t>Warm Blooded Animal</t>
   </si>
   <si>
-    <t>Pets and Live</t>
-  </si>
-  <si>
     <t>ABLiveAnimal</t>
   </si>
   <si>
@@ -963,30 +960,9 @@
     <t>GBHumanRemains</t>
   </si>
   <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_LIVE_Bird_Domestic</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_LIVE_Cat_Domestic</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_LIVE_Dog_Domestic</t>
-  </si>
-  <si>
     <t>ParcelQuantiy</t>
   </si>
   <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_LIVE_ColdBloodedAnimal_Domestic</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_LIVE_HatchingEggs_Domestic</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_LIVE_WarmBloodedAnimal_Domestic</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingHuman_Remains_DELTA_CARES_Adult_Domestic</t>
-  </si>
-  <si>
     <t>bhavani.akuthota@delta.com</t>
   </si>
   <si>
@@ -1053,24 +1029,6 @@
     <t>createAndConfirmGuidedBookingParcellessthan16OZ_CRITICAL_NA_International</t>
   </si>
   <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_Bird_International</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_Cat_International</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_ColdBloodedAnimal_International</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_Dog_International</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_HatchingEggs_International</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_WarmBloodedAnimal_International</t>
-  </si>
-  <si>
     <t>EXPRESS HEAVY</t>
   </si>
   <si>
@@ -1086,12 +1044,6 @@
     <t>PDX</t>
   </si>
   <si>
-    <t>CVH</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
     <t>SYD</t>
   </si>
   <si>
@@ -1131,15 +1083,6 @@
     <t>GBSpecialty</t>
   </si>
   <si>
-    <t>createAndConfirmGuidedBookingHuman_Remains_DMD_CrematedRemains_Domestic</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingHuman_Remains_SPECIALIZED_CARE_Adult_International</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingHuman_Remains_EXPRESS_CrematedRemains_International</t>
-  </si>
-  <si>
     <t>DASHCRITICAL</t>
   </si>
   <si>
@@ -1311,10 +1254,106 @@
     <t>createAndConfirmGuidedBookingValuables_SPECIALIZED_SAFE_Valuelessthan25000USD_International</t>
   </si>
   <si>
-    <t>createAndConfirmGuidedBookingHuman_Remains_DELTA_CARES_ChildInfant_Domestic</t>
-  </si>
-  <si>
-    <t>createAndConfirmGuidedBookingHuman_Remains_SPECIALIZED_CARE_ChildInfant_International</t>
+    <t>Test Pharma</t>
+  </si>
+  <si>
+    <t>Test Parcels</t>
+  </si>
+  <si>
+    <t>Test Parcel less</t>
+  </si>
+  <si>
+    <t>Test Pet and Live</t>
+  </si>
+  <si>
+    <t>Csafe RAP</t>
+  </si>
+  <si>
+    <t>VA-Q-Case Half Euro</t>
+  </si>
+  <si>
+    <t>Test Perishables</t>
+  </si>
+  <si>
+    <t>Test Medical</t>
+  </si>
+  <si>
+    <t>Test Valuables</t>
+  </si>
+  <si>
+    <t>Test Cares</t>
+  </si>
+  <si>
+    <t>OMA</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>BWI</t>
+  </si>
+  <si>
+    <t>PetsandLive</t>
+  </si>
+  <si>
+    <t>HumanRemains</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_LIVE_Bird_Domestic</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_LIVE_Cat_Domestic</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_LIVE_ColdBloodedAnimal_Domestic</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_LIVE_Dog_Domestic</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_LIVE_HatchingEggs_Domestic</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_LIVE_WarmBloodedAnimal_Domestic</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_Bird_International</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_Cat_International</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_ColdBloodedAnimal_International</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_Dog_International</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_HatchingEggs_International</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_WarmBloodedAnimal_International</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingHumanRemains_DELTA_CARES_Adult_Domestic</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingHumanRemains_DELTA_CARES_ChildInfant_Domestic</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingHumanRemains_DMD_CrematedRemains_Domestic</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingHumanRemains_SPECIALIZED_CARE_Adult_International</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingHumanRemains_SPECIALIZED_CARE_ChildInfant_International</t>
+  </si>
+  <si>
+    <t>createAndConfirmGuidedBookingHumanRemains_EXPRESS_CrematedRemains_International</t>
   </si>
 </sst>
 </file>
@@ -1504,12 +1543,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -1534,12 +1567,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1623,12 +1662,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1835,8 +1902,18 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2375,7 +2452,7 @@
     </row>
     <row r="2" spans="1:38" ht="16.5">
       <c r="A2" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>210</v>
@@ -2526,7 +2603,7 @@
     </row>
     <row r="3" spans="1:38" ht="16.5">
       <c r="A3" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>210</v>
@@ -2677,7 +2754,7 @@
     </row>
     <row r="4" spans="1:38" ht="16.5">
       <c r="A4" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>210</v>
@@ -2828,7 +2905,7 @@
     </row>
     <row r="5" spans="1:38" ht="16.5">
       <c r="A5" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>210</v>
@@ -2979,7 +3056,7 @@
     </row>
     <row r="6" spans="1:38" ht="16.5">
       <c r="A6" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>210</v>
@@ -3130,7 +3207,7 @@
     </row>
     <row r="7" spans="1:38" ht="16.5">
       <c r="A7" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>210</v>
@@ -3281,7 +3358,7 @@
     </row>
     <row r="8" spans="1:38" ht="16.5">
       <c r="A8" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>210</v>
@@ -3432,7 +3509,7 @@
     </row>
     <row r="9" spans="1:38" ht="16.5">
       <c r="A9" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>210</v>
@@ -3583,7 +3660,7 @@
     </row>
     <row r="10" spans="1:38" ht="16.5">
       <c r="A10" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>210</v>
@@ -3734,7 +3811,7 @@
     </row>
     <row r="11" spans="1:38" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>210</v>
@@ -3885,7 +3962,7 @@
     </row>
     <row r="12" spans="1:38" ht="16.5">
       <c r="A12" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>210</v>
@@ -4036,7 +4113,7 @@
     </row>
     <row r="13" spans="1:38" ht="16.5">
       <c r="A13" s="32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>210</v>
@@ -4187,7 +4264,7 @@
     </row>
     <row r="14" spans="1:38" ht="16.5">
       <c r="A14" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>210</v>
@@ -4338,7 +4415,7 @@
     </row>
     <row r="15" spans="1:38" ht="16.5">
       <c r="A15" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>210</v>
@@ -7293,10 +7370,10 @@
     </row>
     <row r="2" spans="1:38" ht="17" thickBot="1">
       <c r="A2" s="72" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>35</v>
@@ -7335,7 +7412,7 @@
       </c>
       <c r="L2" s="31" t="str" cm="1">
         <f t="array" ref="L2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcel less</v>
       </c>
       <c r="M2" s="31" cm="1">
         <f t="array" ref="M2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -7444,10 +7521,10 @@
     </row>
     <row r="3" spans="1:38" ht="17" thickBot="1">
       <c r="A3" s="72" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
@@ -7486,7 +7563,7 @@
       </c>
       <c r="L3" s="31" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcel less</v>
       </c>
       <c r="M3" s="31" cm="1">
         <f t="array" ref="M3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -7522,7 +7599,7 @@
       </c>
       <c r="U3" s="31" t="str" cm="1">
         <f t="array" ref="U3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V3" s="31" t="str" cm="1">
         <f t="array" ref="V3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -7530,7 +7607,7 @@
       </c>
       <c r="W3" s="31" t="str" cm="1">
         <f t="array" ref="W3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X3" s="31" cm="1">
         <f t="array" ref="X3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -7595,10 +7672,10 @@
     </row>
     <row r="4" spans="1:38" ht="17" thickBot="1">
       <c r="A4" s="72" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>35</v>
@@ -7637,7 +7714,7 @@
       </c>
       <c r="L4" s="31" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcel less</v>
       </c>
       <c r="M4" s="31" cm="1">
         <f t="array" ref="M4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -7746,10 +7823,10 @@
     </row>
     <row r="5" spans="1:38" ht="17" thickBot="1">
       <c r="A5" s="72" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>35</v>
@@ -7788,7 +7865,7 @@
       </c>
       <c r="L5" s="31" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcel less</v>
       </c>
       <c r="M5" s="31" cm="1">
         <f t="array" ref="M5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -7824,7 +7901,7 @@
       </c>
       <c r="U5" s="31" t="str" cm="1">
         <f t="array" ref="U5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V5" s="31" t="str" cm="1">
         <f t="array" ref="V5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -7832,7 +7909,7 @@
       </c>
       <c r="W5" s="31" t="str" cm="1">
         <f t="array" ref="W5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X5" s="31" cm="1">
         <f t="array" ref="X5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -7897,10 +7974,10 @@
     </row>
     <row r="6" spans="1:38" ht="17" thickBot="1">
       <c r="A6" s="72" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
@@ -7939,7 +8016,7 @@
       </c>
       <c r="L6" s="31" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcel less</v>
       </c>
       <c r="M6" s="31" cm="1">
         <f t="array" ref="M6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -8048,10 +8125,10 @@
     </row>
     <row r="7" spans="1:38" ht="17" thickBot="1">
       <c r="A7" s="72" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>35</v>
@@ -8090,7 +8167,7 @@
       </c>
       <c r="L7" s="31" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcel less</v>
       </c>
       <c r="M7" s="31" cm="1">
         <f t="array" ref="M7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -8126,7 +8203,7 @@
       </c>
       <c r="U7" s="31" t="str" cm="1">
         <f t="array" ref="U7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V7" s="31" t="str" cm="1">
         <f t="array" ref="V7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -8134,7 +8211,7 @@
       </c>
       <c r="W7" s="31" t="str" cm="1">
         <f t="array" ref="W7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X7" s="31" cm="1">
         <f t="array" ref="X7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -8209,15 +8286,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78402954-2B6D-C042-9263-9F192091C8D5}">
   <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="94.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="16" customWidth="1"/>
     <col min="39" max="39" width="13.33203125" customWidth="1"/>
@@ -8339,15 +8414,15 @@
         <v>73</v>
       </c>
       <c r="AM1" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="17" thickBot="1">
       <c r="A2" s="73" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>35</v>
@@ -8386,11 +8461,11 @@
       </c>
       <c r="L2" s="31" t="str" cm="1">
         <f t="array" ref="L2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcels</v>
       </c>
       <c r="M2" s="31" cm="1">
         <f t="array" ref="M2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N2" s="31" t="str" cm="1">
         <f t="array" ref="N2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -8422,7 +8497,7 @@
       </c>
       <c r="U2" s="31" t="str" cm="1">
         <f t="array" ref="U2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V2" s="31" t="str" cm="1">
         <f t="array" ref="V2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -8499,10 +8574,10 @@
     </row>
     <row r="3" spans="1:39" ht="17" thickBot="1">
       <c r="A3" s="73" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
@@ -8541,11 +8616,11 @@
       </c>
       <c r="L3" s="31" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcels</v>
       </c>
       <c r="M3" s="31" cm="1">
         <f t="array" ref="M3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N3" s="31" t="str" cm="1">
         <f t="array" ref="N3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -8553,7 +8628,7 @@
       </c>
       <c r="O3" s="31" cm="1">
         <f t="array" ref="O3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(O$1,dataRowRange,ActualDataRange))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" s="31" cm="1">
         <f t="array" ref="P3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(P$1,dataRowRange,ActualDataRange))</f>
@@ -8585,7 +8660,7 @@
       </c>
       <c r="W3" s="31" t="str" cm="1">
         <f t="array" ref="W3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X3" s="31" cm="1">
         <f t="array" ref="X3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -8654,10 +8729,10 @@
     </row>
     <row r="4" spans="1:39" ht="17" thickBot="1">
       <c r="A4" s="73" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>35</v>
@@ -8696,11 +8771,11 @@
       </c>
       <c r="L4" s="31" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcels</v>
       </c>
       <c r="M4" s="31" cm="1">
         <f t="array" ref="M4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="N4" s="31" t="str" cm="1">
         <f t="array" ref="N4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -8708,7 +8783,7 @@
       </c>
       <c r="O4" s="31" cm="1">
         <f t="array" ref="O4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(O$1,dataRowRange,ActualDataRange))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P4" s="31" cm="1">
         <f t="array" ref="P4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(P$1,dataRowRange,ActualDataRange))</f>
@@ -8732,7 +8807,7 @@
       </c>
       <c r="U4" s="31" t="str" cm="1">
         <f t="array" ref="U4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V4" s="31" t="str" cm="1">
         <f t="array" ref="V4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -8809,10 +8884,10 @@
     </row>
     <row r="5" spans="1:39" ht="17" thickBot="1">
       <c r="A5" s="73" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>35</v>
@@ -8851,11 +8926,11 @@
       </c>
       <c r="L5" s="31" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcels</v>
       </c>
       <c r="M5" s="31" cm="1">
         <f t="array" ref="M5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N5" s="31" t="str" cm="1">
         <f t="array" ref="N5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -8895,7 +8970,7 @@
       </c>
       <c r="W5" s="31" t="str" cm="1">
         <f t="array" ref="W5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X5" s="31" cm="1">
         <f t="array" ref="X5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -8964,10 +9039,10 @@
     </row>
     <row r="6" spans="1:39" ht="17" thickBot="1">
       <c r="A6" s="73" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
@@ -9006,11 +9081,11 @@
       </c>
       <c r="L6" s="31" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcels</v>
       </c>
       <c r="M6" s="31" cm="1">
         <f t="array" ref="M6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N6" s="31" t="str" cm="1">
         <f t="array" ref="N6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -9042,7 +9117,7 @@
       </c>
       <c r="U6" s="31" t="str" cm="1">
         <f t="array" ref="U6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V6" s="31" t="str" cm="1">
         <f t="array" ref="V6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -9119,10 +9194,10 @@
     </row>
     <row r="7" spans="1:39" ht="17" thickBot="1">
       <c r="A7" s="73" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>35</v>
@@ -9161,11 +9236,11 @@
       </c>
       <c r="L7" s="31" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Parcels</v>
       </c>
       <c r="M7" s="31" cm="1">
         <f t="array" ref="M7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N7" s="31" t="str" cm="1">
         <f t="array" ref="N7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -9205,7 +9280,7 @@
       </c>
       <c r="W7" s="31" t="str" cm="1">
         <f t="array" ref="W7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X7" s="31" cm="1">
         <f t="array" ref="X7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -9284,9 +9359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85CBF01-6F2F-C544-96AC-B46CDE75B137}">
   <dimension ref="A1:AL13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
@@ -9446,11 +9519,11 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="17" thickBot="1">
-      <c r="A2" s="74" t="s">
-        <v>294</v>
+      <c r="A2" s="78" t="s">
+        <v>407</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>223</v>
@@ -9489,7 +9562,7 @@
       </c>
       <c r="L2" s="31" t="str" cm="1">
         <f t="array" ref="L2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M2" s="31" cm="1">
         <f t="array" ref="M2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -9597,11 +9670,11 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="17" thickBot="1">
-      <c r="A3" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>277</v>
+      <c r="A3" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>39</v>
@@ -9640,11 +9713,11 @@
       </c>
       <c r="L3" s="31" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M3" s="31" cm="1">
         <f t="array" ref="M3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N3" s="31" t="str" cm="1">
         <f t="array" ref="N3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -9676,7 +9749,7 @@
       </c>
       <c r="U3" s="31" t="str" cm="1">
         <f t="array" ref="U3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V3" s="31" t="str" cm="1">
         <f t="array" ref="V3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -9684,7 +9757,7 @@
       </c>
       <c r="W3" s="31" t="str" cm="1">
         <f t="array" ref="W3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X3" s="31" cm="1">
         <f t="array" ref="X3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -9748,11 +9821,11 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="17" thickBot="1">
-      <c r="A4" s="74" t="s">
-        <v>298</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>277</v>
+      <c r="A4" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>274</v>
@@ -9791,11 +9864,11 @@
       </c>
       <c r="L4" s="31" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M4" s="31" cm="1">
         <f t="array" ref="M4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N4" s="31" t="str" cm="1">
         <f t="array" ref="N4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -9899,11 +9972,11 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="17" thickBot="1">
-      <c r="A5" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>277</v>
+      <c r="A5" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>275</v>
@@ -9942,11 +10015,11 @@
       </c>
       <c r="L5" s="31" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M5" s="31" cm="1">
         <f t="array" ref="M5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="N5" s="31" t="str" cm="1">
         <f t="array" ref="N5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -9978,7 +10051,7 @@
       </c>
       <c r="U5" s="31" t="str" cm="1">
         <f t="array" ref="U5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V5" s="31" t="str" cm="1">
         <f t="array" ref="V5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -9986,7 +10059,7 @@
       </c>
       <c r="W5" s="31" t="str" cm="1">
         <f t="array" ref="W5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X5" s="31" cm="1">
         <f t="array" ref="X5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -10050,11 +10123,11 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="17" thickBot="1">
-      <c r="A6" s="74" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>277</v>
+      <c r="A6" s="79" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>229</v>
@@ -10093,11 +10166,11 @@
       </c>
       <c r="L6" s="31" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M6" s="31" cm="1">
         <f t="array" ref="M6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N6" s="31" t="str" cm="1">
         <f t="array" ref="N6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -10201,11 +10274,11 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="17" thickBot="1">
-      <c r="A7" s="74" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>277</v>
+      <c r="A7" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>276</v>
@@ -10236,7 +10309,7 @@
       </c>
       <c r="J7" s="31" t="str" cm="1">
         <f t="array" ref="J7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
-        <v>MSP</v>
+        <v>BWI</v>
       </c>
       <c r="K7" s="31" t="str" cm="1">
         <f t="array" ref="K7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(K$1,dataRowRange,ActualDataRange))</f>
@@ -10244,11 +10317,11 @@
       </c>
       <c r="L7" s="31" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M7" s="31" cm="1">
         <f t="array" ref="M7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N7" s="31" t="str" cm="1">
         <f t="array" ref="N7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -10280,7 +10353,7 @@
       </c>
       <c r="U7" s="31" t="str" cm="1">
         <f t="array" ref="U7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V7" s="31" t="str" cm="1">
         <f t="array" ref="V7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -10288,7 +10361,7 @@
       </c>
       <c r="W7" s="31" t="str" cm="1">
         <f t="array" ref="W7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X7" s="31" cm="1">
         <f t="array" ref="X7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -10352,11 +10425,11 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="17" thickBot="1">
-      <c r="A8" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>277</v>
+      <c r="A8" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>223</v>
@@ -10395,7 +10468,7 @@
       </c>
       <c r="L8" s="31" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.XLOOKUP($A8,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M8" s="31" cm="1">
         <f t="array" ref="M8">_xlfn.XLOOKUP($A8,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -10503,11 +10576,11 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="17" thickBot="1">
-      <c r="A9" s="74" t="s">
-        <v>325</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>277</v>
+      <c r="A9" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>39</v>
@@ -10546,11 +10619,11 @@
       </c>
       <c r="L9" s="31" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M9" s="31" cm="1">
         <f t="array" ref="M9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="N9" s="31" t="str" cm="1">
         <f t="array" ref="N9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -10582,7 +10655,7 @@
       </c>
       <c r="U9" s="31" t="str" cm="1">
         <f t="array" ref="U9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V9" s="31" t="str" cm="1">
         <f t="array" ref="V9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -10590,7 +10663,7 @@
       </c>
       <c r="W9" s="31" t="str" cm="1">
         <f t="array" ref="W9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X9" s="31" cm="1">
         <f t="array" ref="X9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -10654,11 +10727,11 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="17" thickBot="1">
-      <c r="A10" s="74" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>277</v>
+      <c r="A10" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>274</v>
@@ -10697,11 +10770,11 @@
       </c>
       <c r="L10" s="31" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.XLOOKUP($A10,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M10" s="31" cm="1">
         <f t="array" ref="M10">_xlfn.XLOOKUP($A10,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N10" s="31" t="str" cm="1">
         <f t="array" ref="N10">_xlfn.XLOOKUP($A10,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -10805,11 +10878,11 @@
       </c>
     </row>
     <row r="11" spans="1:38" ht="17" thickBot="1">
-      <c r="A11" s="74" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>277</v>
+      <c r="A11" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>275</v>
@@ -10848,11 +10921,11 @@
       </c>
       <c r="L11" s="31" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M11" s="31" cm="1">
         <f t="array" ref="M11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N11" s="31" t="str" cm="1">
         <f t="array" ref="N11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -10884,7 +10957,7 @@
       </c>
       <c r="U11" s="31" t="str" cm="1">
         <f t="array" ref="U11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V11" s="31" t="str" cm="1">
         <f t="array" ref="V11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -10892,7 +10965,7 @@
       </c>
       <c r="W11" s="31" t="str" cm="1">
         <f t="array" ref="W11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X11" s="31" cm="1">
         <f t="array" ref="X11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -10956,11 +11029,11 @@
       </c>
     </row>
     <row r="12" spans="1:38" ht="17" thickBot="1">
-      <c r="A12" s="74" t="s">
-        <v>328</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>277</v>
+      <c r="A12" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>229</v>
@@ -10999,11 +11072,11 @@
       </c>
       <c r="L12" s="31" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.XLOOKUP($A12,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M12" s="31" cm="1">
         <f t="array" ref="M12">_xlfn.XLOOKUP($A12,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N12" s="31" t="str" cm="1">
         <f t="array" ref="N12">_xlfn.XLOOKUP($A12,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -11107,11 +11180,11 @@
       </c>
     </row>
     <row r="13" spans="1:38" ht="17" thickBot="1">
-      <c r="A13" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>277</v>
+      <c r="A13" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>276</v>
@@ -11150,11 +11223,11 @@
       </c>
       <c r="L13" s="31" t="str" cm="1">
         <f t="array" ref="L13">_xlfn.XLOOKUP($A13,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pet and Live</v>
       </c>
       <c r="M13" s="31" cm="1">
         <f t="array" ref="M13">_xlfn.XLOOKUP($A13,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="N13" s="31" t="str" cm="1">
         <f t="array" ref="N13">_xlfn.XLOOKUP($A13,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -11186,7 +11259,7 @@
       </c>
       <c r="U13" s="31" t="str" cm="1">
         <f t="array" ref="U13">_xlfn.XLOOKUP($A13,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V13" s="31" t="str" cm="1">
         <f t="array" ref="V13">_xlfn.XLOOKUP($A13,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -11194,7 +11267,7 @@
       </c>
       <c r="W13" s="31" t="str" cm="1">
         <f t="array" ref="W13">_xlfn.XLOOKUP($A13,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X13" s="31" cm="1">
         <f t="array" ref="X13">_xlfn.XLOOKUP($A13,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -11262,6 +11335,7 @@
     <hyperlink ref="A1" location="TestCaseConfig!A1" display="Testcase" xr:uid="{73E00DBF-EAB7-6B46-8210-A3AA06B3C0E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11401,8 +11475,8 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="17" thickBot="1">
-      <c r="A2" s="75" t="s">
-        <v>374</v>
+      <c r="A2" s="74" t="s">
+        <v>355</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>27</v>
@@ -11444,7 +11518,7 @@
       </c>
       <c r="L2" s="31" t="str" cm="1">
         <f t="array" ref="L2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Perishables</v>
       </c>
       <c r="M2" s="31" cm="1">
         <f t="array" ref="M2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -11552,8 +11626,8 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="17" thickBot="1">
-      <c r="A3" s="75" t="s">
-        <v>375</v>
+      <c r="A3" s="74" t="s">
+        <v>356</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>27</v>
@@ -11583,11 +11657,11 @@
       </c>
       <c r="I3" s="31" t="str" cm="1">
         <f t="array" ref="I3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(I$1,dataRowRange,ActualDataRange))</f>
-        <v>ATL</v>
+        <v>LAX</v>
       </c>
       <c r="J3" s="31" t="str" cm="1">
         <f t="array" ref="J3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
-        <v>MSP</v>
+        <v>JFK</v>
       </c>
       <c r="K3" s="31" t="str" cm="1">
         <f t="array" ref="K3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(K$1,dataRowRange,ActualDataRange))</f>
@@ -11595,7 +11669,7 @@
       </c>
       <c r="L3" s="31" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Perishables</v>
       </c>
       <c r="M3" s="31" cm="1">
         <f t="array" ref="M3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -11703,8 +11777,8 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="17" thickBot="1">
-      <c r="A4" s="75" t="s">
-        <v>376</v>
+      <c r="A4" s="74" t="s">
+        <v>357</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>27</v>
@@ -11734,11 +11808,11 @@
       </c>
       <c r="I4" s="31" t="str" cm="1">
         <f t="array" ref="I4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(I$1,dataRowRange,ActualDataRange))</f>
-        <v>ATL</v>
+        <v>MIA</v>
       </c>
       <c r="J4" s="31" t="str" cm="1">
         <f t="array" ref="J4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
-        <v>MSP</v>
+        <v>JFK</v>
       </c>
       <c r="K4" s="31" t="str" cm="1">
         <f t="array" ref="K4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(K$1,dataRowRange,ActualDataRange))</f>
@@ -11746,7 +11820,7 @@
       </c>
       <c r="L4" s="31" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Perishables</v>
       </c>
       <c r="M4" s="31" cm="1">
         <f t="array" ref="M4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -11854,8 +11928,8 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="17" thickBot="1">
-      <c r="A5" s="75" t="s">
-        <v>377</v>
+      <c r="A5" s="74" t="s">
+        <v>358</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>27</v>
@@ -11897,7 +11971,7 @@
       </c>
       <c r="L5" s="31" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Perishables</v>
       </c>
       <c r="M5" s="31" cm="1">
         <f t="array" ref="M5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -12005,8 +12079,8 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="17" thickBot="1">
-      <c r="A6" s="75" t="s">
-        <v>378</v>
+      <c r="A6" s="74" t="s">
+        <v>359</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>27</v>
@@ -12036,11 +12110,11 @@
       </c>
       <c r="I6" s="31" t="str" cm="1">
         <f t="array" ref="I6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(I$1,dataRowRange,ActualDataRange))</f>
-        <v>ATL</v>
+        <v>MIA</v>
       </c>
       <c r="J6" s="31" t="str" cm="1">
         <f t="array" ref="J6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
-        <v>MSP</v>
+        <v>SEA</v>
       </c>
       <c r="K6" s="31" t="str" cm="1">
         <f t="array" ref="K6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(K$1,dataRowRange,ActualDataRange))</f>
@@ -12048,7 +12122,7 @@
       </c>
       <c r="L6" s="31" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Perishables</v>
       </c>
       <c r="M6" s="31" cm="1">
         <f t="array" ref="M6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -12156,8 +12230,8 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="17" thickBot="1">
-      <c r="A7" s="75" t="s">
-        <v>379</v>
+      <c r="A7" s="74" t="s">
+        <v>360</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>27</v>
@@ -12199,7 +12273,7 @@
       </c>
       <c r="L7" s="31" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Perishables</v>
       </c>
       <c r="M7" s="31" cm="1">
         <f t="array" ref="M7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -12307,8 +12381,8 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="17" thickBot="1">
-      <c r="A8" s="75" t="s">
-        <v>380</v>
+      <c r="A8" s="74" t="s">
+        <v>361</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>27</v>
@@ -12350,7 +12424,7 @@
       </c>
       <c r="L8" s="31" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.XLOOKUP($A8,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Perishables</v>
       </c>
       <c r="M8" s="31" cm="1">
         <f t="array" ref="M8">_xlfn.XLOOKUP($A8,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -12458,8 +12532,8 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="17" thickBot="1">
-      <c r="A9" s="75" t="s">
-        <v>381</v>
+      <c r="A9" s="74" t="s">
+        <v>362</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>27</v>
@@ -12501,7 +12575,7 @@
       </c>
       <c r="L9" s="31" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Perishables</v>
       </c>
       <c r="M9" s="31" cm="1">
         <f t="array" ref="M9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -12609,8 +12683,8 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="17" thickBot="1">
-      <c r="A10" s="75" t="s">
-        <v>382</v>
+      <c r="A10" s="74" t="s">
+        <v>363</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>27</v>
@@ -12652,7 +12726,7 @@
       </c>
       <c r="L10" s="31" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.XLOOKUP($A10,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Perishables</v>
       </c>
       <c r="M10" s="31" cm="1">
         <f t="array" ref="M10">_xlfn.XLOOKUP($A10,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -12760,8 +12834,8 @@
       </c>
     </row>
     <row r="11" spans="1:38" ht="17" thickBot="1">
-      <c r="A11" s="75" t="s">
-        <v>383</v>
+      <c r="A11" s="74" t="s">
+        <v>364</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>27</v>
@@ -12803,7 +12877,7 @@
       </c>
       <c r="L11" s="31" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Perishables</v>
       </c>
       <c r="M11" s="31" cm="1">
         <f t="array" ref="M11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -12922,9 +12996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B20742-2F64-BB4D-931D-0ED7AB74219D}">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
@@ -13053,8 +13125,8 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="17" thickBot="1">
-      <c r="A2" s="76" t="s">
-        <v>384</v>
+      <c r="A2" s="75" t="s">
+        <v>365</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>45</v>
@@ -13096,7 +13168,7 @@
       </c>
       <c r="L2" s="31" t="str" cm="1">
         <f t="array" ref="L2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pharma</v>
       </c>
       <c r="M2" s="31" cm="1">
         <f t="array" ref="M2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -13152,7 +13224,7 @@
       </c>
       <c r="Z2" s="31" t="str" cm="1">
         <f t="array" ref="Z2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(Z$1,dataRowRange,ActualDataRange))</f>
-        <v>NA</v>
+        <v>Csafe RAP</v>
       </c>
       <c r="AA2" s="31" t="str" cm="1">
         <f t="array" ref="AA2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(AA$1,dataRowRange,ActualDataRange))</f>
@@ -13204,8 +13276,8 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="17" thickBot="1">
-      <c r="A3" s="76" t="s">
-        <v>385</v>
+      <c r="A3" s="75" t="s">
+        <v>366</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>45</v>
@@ -13247,7 +13319,7 @@
       </c>
       <c r="L3" s="31" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pharma</v>
       </c>
       <c r="M3" s="31" cm="1">
         <f t="array" ref="M3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -13303,7 +13375,7 @@
       </c>
       <c r="Z3" s="31" t="str" cm="1">
         <f t="array" ref="Z3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(Z$1,dataRowRange,ActualDataRange))</f>
-        <v>NA</v>
+        <v>VA-Q-Case Half Euro</v>
       </c>
       <c r="AA3" s="31" t="str" cm="1">
         <f t="array" ref="AA3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(AA$1,dataRowRange,ActualDataRange))</f>
@@ -13355,8 +13427,8 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="17" thickBot="1">
-      <c r="A4" s="76" t="s">
-        <v>386</v>
+      <c r="A4" s="75" t="s">
+        <v>367</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>45</v>
@@ -13398,11 +13470,11 @@
       </c>
       <c r="L4" s="31" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pharma</v>
       </c>
       <c r="M4" s="31" cm="1">
         <f t="array" ref="M4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="N4" s="31" t="str" cm="1">
         <f t="array" ref="N4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -13410,7 +13482,7 @@
       </c>
       <c r="O4" s="31" cm="1">
         <f t="array" ref="O4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(O$1,dataRowRange,ActualDataRange))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="31" cm="1">
         <f t="array" ref="P4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(P$1,dataRowRange,ActualDataRange))</f>
@@ -13506,8 +13578,8 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="17" thickBot="1">
-      <c r="A5" s="76" t="s">
-        <v>387</v>
+      <c r="A5" s="75" t="s">
+        <v>368</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>45</v>
@@ -13537,11 +13609,11 @@
       </c>
       <c r="I5" s="31" t="str" cm="1">
         <f t="array" ref="I5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(I$1,dataRowRange,ActualDataRange))</f>
-        <v>CVH</v>
+        <v>BOS</v>
       </c>
       <c r="J5" s="31" t="str" cm="1">
         <f t="array" ref="J5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
-        <v>MEM</v>
+        <v>JFK</v>
       </c>
       <c r="K5" s="31" t="str" cm="1">
         <f t="array" ref="K5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(K$1,dataRowRange,ActualDataRange))</f>
@@ -13549,11 +13621,11 @@
       </c>
       <c r="L5" s="31" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pharma</v>
       </c>
       <c r="M5" s="31" cm="1">
         <f t="array" ref="M5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="N5" s="31" t="str" cm="1">
         <f t="array" ref="N5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -13561,19 +13633,19 @@
       </c>
       <c r="O5" s="31" cm="1">
         <f t="array" ref="O5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(O$1,dataRowRange,ActualDataRange))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="31" cm="1">
         <f t="array" ref="P5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(P$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="31" cm="1">
         <f t="array" ref="Q5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(Q$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R5" s="31" cm="1">
         <f t="array" ref="R5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(R$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S5" s="31" t="str" cm="1">
         <f t="array" ref="S5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(S$1,dataRowRange,ActualDataRange))</f>
@@ -13585,7 +13657,7 @@
       </c>
       <c r="U5" s="31" t="str" cm="1">
         <f t="array" ref="U5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(U$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="V5" s="31" t="str" cm="1">
         <f t="array" ref="V5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(V$1,dataRowRange,ActualDataRange))</f>
@@ -13593,7 +13665,7 @@
       </c>
       <c r="W5" s="31" t="str" cm="1">
         <f t="array" ref="W5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X5" s="31" cm="1">
         <f t="array" ref="X5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -13657,8 +13729,8 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="17" thickBot="1">
-      <c r="A6" s="76" t="s">
-        <v>388</v>
+      <c r="A6" s="75" t="s">
+        <v>369</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>45</v>
@@ -13692,7 +13764,7 @@
       </c>
       <c r="J6" s="31" t="str" cm="1">
         <f t="array" ref="J6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
-        <v>MSP</v>
+        <v>JFK</v>
       </c>
       <c r="K6" s="31" t="str" cm="1">
         <f t="array" ref="K6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(K$1,dataRowRange,ActualDataRange))</f>
@@ -13700,11 +13772,11 @@
       </c>
       <c r="L6" s="31" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pharma</v>
       </c>
       <c r="M6" s="31" cm="1">
         <f t="array" ref="M6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="N6" s="31" t="str" cm="1">
         <f t="array" ref="N6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -13712,19 +13784,19 @@
       </c>
       <c r="O6" s="31" cm="1">
         <f t="array" ref="O6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(O$1,dataRowRange,ActualDataRange))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P6" s="31" cm="1">
         <f t="array" ref="P6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(P$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="31" cm="1">
         <f t="array" ref="Q6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(Q$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R6" s="31" cm="1">
         <f t="array" ref="R6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(R$1,dataRowRange,ActualDataRange))</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S6" s="31" t="str" cm="1">
         <f t="array" ref="S6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(S$1,dataRowRange,ActualDataRange))</f>
@@ -13744,7 +13816,7 @@
       </c>
       <c r="W6" s="31" t="str" cm="1">
         <f t="array" ref="W6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(W$1,dataRowRange,ActualDataRange))</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="X6" s="31" cm="1">
         <f t="array" ref="X6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(X$1,dataRowRange,ActualDataRange))</f>
@@ -13808,8 +13880,8 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="17" thickBot="1">
-      <c r="A7" s="76" t="s">
-        <v>389</v>
+      <c r="A7" s="75" t="s">
+        <v>370</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>45</v>
@@ -13851,7 +13923,7 @@
       </c>
       <c r="L7" s="31" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pharma</v>
       </c>
       <c r="M7" s="31" cm="1">
         <f t="array" ref="M7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -13959,8 +14031,8 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="17" thickBot="1">
-      <c r="A8" s="76" t="s">
-        <v>390</v>
+      <c r="A8" s="75" t="s">
+        <v>371</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>45</v>
@@ -14002,7 +14074,7 @@
       </c>
       <c r="L8" s="31" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.XLOOKUP($A8,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pharma</v>
       </c>
       <c r="M8" s="31" cm="1">
         <f t="array" ref="M8">_xlfn.XLOOKUP($A8,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -14110,8 +14182,8 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="17" thickBot="1">
-      <c r="A9" s="76" t="s">
-        <v>391</v>
+      <c r="A9" s="75" t="s">
+        <v>372</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>45</v>
@@ -14153,7 +14225,7 @@
       </c>
       <c r="L9" s="31" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pharma</v>
       </c>
       <c r="M9" s="31" cm="1">
         <f t="array" ref="M9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -14261,8 +14333,8 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="17" thickBot="1">
-      <c r="A10" s="76" t="s">
-        <v>392</v>
+      <c r="A10" s="75" t="s">
+        <v>373</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>45</v>
@@ -14304,7 +14376,7 @@
       </c>
       <c r="L10" s="31" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.XLOOKUP($A10,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pharma</v>
       </c>
       <c r="M10" s="31" cm="1">
         <f t="array" ref="M10">_xlfn.XLOOKUP($A10,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -14412,8 +14484,8 @@
       </c>
     </row>
     <row r="11" spans="1:38" ht="17" thickBot="1">
-      <c r="A11" s="76" t="s">
-        <v>393</v>
+      <c r="A11" s="75" t="s">
+        <v>374</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>45</v>
@@ -14455,7 +14527,7 @@
       </c>
       <c r="L11" s="31" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Pharma</v>
       </c>
       <c r="M11" s="31" cm="1">
         <f t="array" ref="M11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -14704,8 +14776,8 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="17" thickBot="1">
-      <c r="A2" s="77" t="s">
-        <v>394</v>
+      <c r="A2" s="76" t="s">
+        <v>375</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>44</v>
@@ -14747,11 +14819,11 @@
       </c>
       <c r="L2" s="31" t="str" cm="1">
         <f t="array" ref="L2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M2" s="31" cm="1">
         <f t="array" ref="M2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N2" s="31" t="str" cm="1">
         <f t="array" ref="N2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -14855,8 +14927,8 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="17" thickBot="1">
-      <c r="A3" s="77" t="s">
-        <v>395</v>
+      <c r="A3" s="76" t="s">
+        <v>376</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>44</v>
@@ -14886,11 +14958,11 @@
       </c>
       <c r="I3" s="31" t="str" cm="1">
         <f t="array" ref="I3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(I$1,dataRowRange,ActualDataRange))</f>
-        <v>ATL</v>
+        <v>BOS</v>
       </c>
       <c r="J3" s="31" t="str" cm="1">
         <f t="array" ref="J3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
-        <v>MSP</v>
+        <v>JFK</v>
       </c>
       <c r="K3" s="31" t="str" cm="1">
         <f t="array" ref="K3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(K$1,dataRowRange,ActualDataRange))</f>
@@ -14898,11 +14970,11 @@
       </c>
       <c r="L3" s="31" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M3" s="31" cm="1">
         <f t="array" ref="M3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N3" s="31" t="str" cm="1">
         <f t="array" ref="N3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -15006,8 +15078,8 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="17" thickBot="1">
-      <c r="A4" s="77" t="s">
-        <v>396</v>
+      <c r="A4" s="76" t="s">
+        <v>377</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>44</v>
@@ -15037,11 +15109,11 @@
       </c>
       <c r="I4" s="31" t="str" cm="1">
         <f t="array" ref="I4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(I$1,dataRowRange,ActualDataRange))</f>
-        <v>ATL</v>
+        <v>MSP</v>
       </c>
       <c r="J4" s="31" t="str" cm="1">
         <f t="array" ref="J4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
-        <v>MSP</v>
+        <v>OMA</v>
       </c>
       <c r="K4" s="31" t="str" cm="1">
         <f t="array" ref="K4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(K$1,dataRowRange,ActualDataRange))</f>
@@ -15049,11 +15121,11 @@
       </c>
       <c r="L4" s="31" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M4" s="31" cm="1">
         <f t="array" ref="M4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N4" s="31" t="str" cm="1">
         <f t="array" ref="N4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -15157,8 +15229,8 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="17" thickBot="1">
-      <c r="A5" s="77" t="s">
-        <v>397</v>
+      <c r="A5" s="76" t="s">
+        <v>378</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>44</v>
@@ -15188,7 +15260,7 @@
       </c>
       <c r="I5" s="31" t="str" cm="1">
         <f t="array" ref="I5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(I$1,dataRowRange,ActualDataRange))</f>
-        <v>ATL</v>
+        <v>BOS</v>
       </c>
       <c r="J5" s="31" t="str" cm="1">
         <f t="array" ref="J5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
@@ -15200,11 +15272,11 @@
       </c>
       <c r="L5" s="31" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M5" s="31" cm="1">
         <f t="array" ref="M5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N5" s="31" t="str" cm="1">
         <f t="array" ref="N5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -15308,8 +15380,8 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="17" thickBot="1">
-      <c r="A6" s="77" t="s">
-        <v>398</v>
+      <c r="A6" s="76" t="s">
+        <v>379</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>44</v>
@@ -15343,7 +15415,7 @@
       </c>
       <c r="J6" s="31" t="str" cm="1">
         <f t="array" ref="J6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
-        <v>MSP</v>
+        <v>JFK</v>
       </c>
       <c r="K6" s="31" t="str" cm="1">
         <f t="array" ref="K6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(K$1,dataRowRange,ActualDataRange))</f>
@@ -15351,11 +15423,11 @@
       </c>
       <c r="L6" s="31" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M6" s="31" cm="1">
         <f t="array" ref="M6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N6" s="31" t="str" cm="1">
         <f t="array" ref="N6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -15459,8 +15531,8 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="17" thickBot="1">
-      <c r="A7" s="77" t="s">
-        <v>399</v>
+      <c r="A7" s="76" t="s">
+        <v>380</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>44</v>
@@ -15502,11 +15574,11 @@
       </c>
       <c r="L7" s="31" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M7" s="31" cm="1">
         <f t="array" ref="M7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="N7" s="31" t="str" cm="1">
         <f t="array" ref="N7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -15610,8 +15682,8 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="17" thickBot="1">
-      <c r="A8" s="77" t="s">
-        <v>400</v>
+      <c r="A8" s="76" t="s">
+        <v>381</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>44</v>
@@ -15653,11 +15725,11 @@
       </c>
       <c r="L8" s="31" t="str" cm="1">
         <f t="array" ref="L8">_xlfn.XLOOKUP($A8,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M8" s="31" cm="1">
         <f t="array" ref="M8">_xlfn.XLOOKUP($A8,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N8" s="31" t="str" cm="1">
         <f t="array" ref="N8">_xlfn.XLOOKUP($A8,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -15761,8 +15833,8 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="17" thickBot="1">
-      <c r="A9" s="77" t="s">
-        <v>401</v>
+      <c r="A9" s="76" t="s">
+        <v>382</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>44</v>
@@ -15804,11 +15876,11 @@
       </c>
       <c r="L9" s="31" t="str" cm="1">
         <f t="array" ref="L9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M9" s="31" cm="1">
         <f t="array" ref="M9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="N9" s="31" t="str" cm="1">
         <f t="array" ref="N9">_xlfn.XLOOKUP($A9,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -15912,8 +15984,8 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="17" thickBot="1">
-      <c r="A10" s="77" t="s">
-        <v>402</v>
+      <c r="A10" s="76" t="s">
+        <v>383</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>44</v>
@@ -15955,11 +16027,11 @@
       </c>
       <c r="L10" s="31" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.XLOOKUP($A10,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M10" s="31" cm="1">
         <f t="array" ref="M10">_xlfn.XLOOKUP($A10,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="N10" s="31" t="str" cm="1">
         <f t="array" ref="N10">_xlfn.XLOOKUP($A10,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -16063,8 +16135,8 @@
       </c>
     </row>
     <row r="11" spans="1:38" ht="17" thickBot="1">
-      <c r="A11" s="77" t="s">
-        <v>403</v>
+      <c r="A11" s="76" t="s">
+        <v>384</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>44</v>
@@ -16106,11 +16178,11 @@
       </c>
       <c r="L11" s="31" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M11" s="31" cm="1">
         <f t="array" ref="M11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="N11" s="31" t="str" cm="1">
         <f t="array" ref="N11">_xlfn.XLOOKUP($A11,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -16214,8 +16286,8 @@
       </c>
     </row>
     <row r="12" spans="1:38" ht="17" thickBot="1">
-      <c r="A12" s="77" t="s">
-        <v>404</v>
+      <c r="A12" s="76" t="s">
+        <v>385</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>44</v>
@@ -16257,11 +16329,11 @@
       </c>
       <c r="L12" s="31" t="str" cm="1">
         <f t="array" ref="L12">_xlfn.XLOOKUP($A12,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M12" s="31" cm="1">
         <f t="array" ref="M12">_xlfn.XLOOKUP($A12,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N12" s="31" t="str" cm="1">
         <f t="array" ref="N12">_xlfn.XLOOKUP($A12,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -16365,8 +16437,8 @@
       </c>
     </row>
     <row r="13" spans="1:38" ht="17" thickBot="1">
-      <c r="A13" s="77" t="s">
-        <v>405</v>
+      <c r="A13" s="76" t="s">
+        <v>386</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>44</v>
@@ -16408,11 +16480,11 @@
       </c>
       <c r="L13" s="31" t="str" cm="1">
         <f t="array" ref="L13">_xlfn.XLOOKUP($A13,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Medical</v>
       </c>
       <c r="M13" s="31" cm="1">
         <f t="array" ref="M13">_xlfn.XLOOKUP($A13,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N13" s="31" t="str" cm="1">
         <f t="array" ref="N13">_xlfn.XLOOKUP($A13,DataColumnRange,_xlfn.XLOOKUP(N$1,dataRowRange,ActualDataRange))</f>
@@ -16654,8 +16726,8 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="16" thickBot="1">
-      <c r="A2" s="78" t="s">
-        <v>406</v>
+      <c r="A2" s="77" t="s">
+        <v>387</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>87</v>
@@ -16697,7 +16769,7 @@
       </c>
       <c r="L2" s="31" t="str" cm="1">
         <f t="array" ref="L2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Valuables</v>
       </c>
       <c r="M2" s="31" cm="1">
         <f t="array" ref="M2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -16805,8 +16877,8 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="16" thickBot="1">
-      <c r="A3" s="78" t="s">
-        <v>407</v>
+      <c r="A3" s="77" t="s">
+        <v>388</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>87</v>
@@ -16836,11 +16908,11 @@
       </c>
       <c r="I3" s="31" t="str" cm="1">
         <f t="array" ref="I3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(I$1,dataRowRange,ActualDataRange))</f>
-        <v>ATL</v>
+        <v>BOS</v>
       </c>
       <c r="J3" s="31" t="str" cm="1">
         <f t="array" ref="J3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(J$1,dataRowRange,ActualDataRange))</f>
-        <v>MSP</v>
+        <v>JFK</v>
       </c>
       <c r="K3" s="31" t="str" cm="1">
         <f t="array" ref="K3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(K$1,dataRowRange,ActualDataRange))</f>
@@ -16848,7 +16920,7 @@
       </c>
       <c r="L3" s="31" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Valuables</v>
       </c>
       <c r="M3" s="31" cm="1">
         <f t="array" ref="M3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -16956,14 +17028,14 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="16" thickBot="1">
-      <c r="A4" s="78" t="s">
-        <v>408</v>
+      <c r="A4" s="77" t="s">
+        <v>389</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D4" s="41" t="str">
         <f>IF(TestCaseConfig!$B$2="Yes","Yes","No")</f>
@@ -16999,7 +17071,7 @@
       </c>
       <c r="L4" s="31" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Valuables</v>
       </c>
       <c r="M4" s="31" cm="1">
         <f t="array" ref="M4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -17107,14 +17179,14 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="16" thickBot="1">
-      <c r="A5" s="78" t="s">
-        <v>409</v>
+      <c r="A5" s="77" t="s">
+        <v>390</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D5" s="41" t="str">
         <f>IF(TestCaseConfig!$B$2="Yes","Yes","No")</f>
@@ -17150,7 +17222,7 @@
       </c>
       <c r="L5" s="31" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Valuables</v>
       </c>
       <c r="M5" s="31" cm="1">
         <f t="array" ref="M5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -17273,9 +17345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35458118-D48A-D94F-8815-70903938F945}">
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
@@ -17401,11 +17471,11 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="16" thickBot="1">
-      <c r="A2" s="79" t="s">
-        <v>301</v>
+      <c r="A2" s="80" t="s">
+        <v>419</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>189</v>
@@ -17444,7 +17514,7 @@
       </c>
       <c r="L2" s="31" t="str" cm="1">
         <f t="array" ref="L2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Cares</v>
       </c>
       <c r="M2" s="31" cm="1">
         <f t="array" ref="M2">_xlfn.XLOOKUP($A2,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -17552,11 +17622,11 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="16" thickBot="1">
-      <c r="A3" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>89</v>
+      <c r="A3" s="81" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>406</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>189</v>
@@ -17595,7 +17665,7 @@
       </c>
       <c r="L3" s="31" t="str" cm="1">
         <f t="array" ref="L3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Cares</v>
       </c>
       <c r="M3" s="31" cm="1">
         <f t="array" ref="M3">_xlfn.XLOOKUP($A3,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -17703,14 +17773,14 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="16" thickBot="1">
-      <c r="A4" s="79" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>89</v>
+      <c r="A4" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>406</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D4" s="41" t="str">
         <f>IF(TestCaseConfig!$B$2="Yes","Yes","No")</f>
@@ -17746,7 +17816,7 @@
       </c>
       <c r="L4" s="31" t="str" cm="1">
         <f t="array" ref="L4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Cares</v>
       </c>
       <c r="M4" s="31" cm="1">
         <f t="array" ref="M4">_xlfn.XLOOKUP($A4,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -17854,14 +17924,14 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="16" thickBot="1">
-      <c r="A5" s="79" t="s">
-        <v>351</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>89</v>
+      <c r="A5" s="81" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>406</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="D5" s="41" t="str">
         <f>IF(TestCaseConfig!$B$2="Yes","Yes","No")</f>
@@ -17897,7 +17967,7 @@
       </c>
       <c r="L5" s="31" t="str" cm="1">
         <f t="array" ref="L5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Cares</v>
       </c>
       <c r="M5" s="31" cm="1">
         <f t="array" ref="M5">_xlfn.XLOOKUP($A5,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -18005,14 +18075,14 @@
       </c>
     </row>
     <row r="6" spans="1:38" ht="16" thickBot="1">
-      <c r="A6" s="79" t="s">
-        <v>411</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>89</v>
+      <c r="A6" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>406</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="D6" s="41" t="str">
         <f>IF(TestCaseConfig!$B$2="Yes","Yes","No")</f>
@@ -18048,7 +18118,7 @@
       </c>
       <c r="L6" s="31" t="str" cm="1">
         <f t="array" ref="L6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Cares</v>
       </c>
       <c r="M6" s="31" cm="1">
         <f t="array" ref="M6">_xlfn.XLOOKUP($A6,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -18156,14 +18226,14 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="16" thickBot="1">
-      <c r="A7" s="79" t="s">
-        <v>352</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>89</v>
+      <c r="A7" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>406</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D7" s="41" t="str">
         <f>IF(TestCaseConfig!$B$2="Yes","Yes","No")</f>
@@ -18199,7 +18269,7 @@
       </c>
       <c r="L7" s="31" t="str" cm="1">
         <f t="array" ref="L7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(L$1,dataRowRange,ActualDataRange))</f>
-        <v>Test</v>
+        <v>Test Cares</v>
       </c>
       <c r="M7" s="31" cm="1">
         <f t="array" ref="M7">_xlfn.XLOOKUP($A7,DataColumnRange,_xlfn.XLOOKUP(M$1,dataRowRange,ActualDataRange))</f>
@@ -18319,9 +18389,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="178" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView zoomScale="178" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
   <cols>
@@ -18465,7 +18533,7 @@
         <v>111</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>121</v>
@@ -18495,7 +18563,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>111</v>
@@ -18513,7 +18581,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>111</v>
@@ -18531,7 +18599,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>111</v>
@@ -18549,7 +18617,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>111</v>
@@ -18567,7 +18635,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>111</v>
@@ -18585,13 +18653,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>207</v>
@@ -18603,13 +18671,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>207</v>
@@ -18647,8 +18715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAEE888-1773-9E47-9558-1F0A440779BF}">
   <dimension ref="A1:AL129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124:A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
@@ -18806,7 +18874,7 @@
         <v>73</v>
       </c>
       <c r="AL1" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -18923,7 +18991,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A66" si="0">_xlfn.CONCAT("createAndConfirmAdvanceBooking",SUBSTITUTE(B3," ","_"),"_",SUBSTITUTE(C3," ","_"),"_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(J3," ",""),"-",""),"/",""),"–",""),"+",""),"°",""),",",""),"_",SUBSTITUTE(AJ3," ","_"))</f>
+        <f t="shared" ref="A3:A63" si="0">_xlfn.CONCAT("createAndConfirmAdvanceBooking",SUBSTITUTE(B3," ","_"),"_",SUBSTITUTE(C3," ","_"),"_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(J3," ",""),"-",""),"/",""),"–",""),"+",""),"°",""),",",""),"_",SUBSTITUTE(AJ3," ","_"))</f>
         <v>createAndConfirmAdvanceBookingGeneral_Cargo_DSH_Loose_Domestic</v>
       </c>
       <c r="B3" s="45" t="s">
@@ -19250,7 +19318,7 @@
         <v>55055</v>
       </c>
       <c r="AI5" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ5" s="48" t="s">
         <v>216</v>
@@ -19362,7 +19430,7 @@
         <v>55055</v>
       </c>
       <c r="AI6" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ6" s="48" t="s">
         <v>216</v>
@@ -19474,7 +19542,7 @@
         <v>55055</v>
       </c>
       <c r="AI7" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ7" s="48" t="s">
         <v>216</v>
@@ -20146,7 +20214,7 @@
         <v>55055</v>
       </c>
       <c r="AI13" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ13" s="48" t="s">
         <v>216</v>
@@ -20258,7 +20326,7 @@
         <v>55055</v>
       </c>
       <c r="AI14" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ14" s="48" t="s">
         <v>216</v>
@@ -20370,7 +20438,7 @@
         <v>55055</v>
       </c>
       <c r="AI15" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ15" s="48" t="s">
         <v>216</v>
@@ -20482,7 +20550,7 @@
         <v>55055</v>
       </c>
       <c r="AI16" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ16" s="48" t="s">
         <v>216</v>
@@ -20594,7 +20662,7 @@
         <v>55055</v>
       </c>
       <c r="AI17" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ17" s="48" t="s">
         <v>216</v>
@@ -21266,7 +21334,7 @@
         <v>55055</v>
       </c>
       <c r="AI23" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ23" s="48" t="s">
         <v>216</v>
@@ -21378,7 +21446,7 @@
         <v>55055</v>
       </c>
       <c r="AI24" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ24" s="48" t="s">
         <v>216</v>
@@ -21490,7 +21558,7 @@
         <v>55055</v>
       </c>
       <c r="AI25" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ25" s="48" t="s">
         <v>216</v>
@@ -21602,7 +21670,7 @@
         <v>55055</v>
       </c>
       <c r="AI26" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ26" s="48" t="s">
         <v>216</v>
@@ -21714,7 +21782,7 @@
         <v>55055</v>
       </c>
       <c r="AI27" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ27" s="48" t="s">
         <v>216</v>
@@ -22498,7 +22566,7 @@
         <v>55055</v>
       </c>
       <c r="AI34" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ34" s="48" t="s">
         <v>216</v>
@@ -22610,7 +22678,7 @@
         <v>55055</v>
       </c>
       <c r="AI35" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ35" s="48" t="s">
         <v>216</v>
@@ -22722,7 +22790,7 @@
         <v>55055</v>
       </c>
       <c r="AI36" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ36" s="48" t="s">
         <v>216</v>
@@ -22834,7 +22902,7 @@
         <v>55055</v>
       </c>
       <c r="AI37" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ37" s="48" t="s">
         <v>216</v>
@@ -22946,7 +23014,7 @@
         <v>55055</v>
       </c>
       <c r="AI38" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ38" s="48" t="s">
         <v>216</v>
@@ -23058,7 +23126,7 @@
         <v>55055</v>
       </c>
       <c r="AI39" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ39" s="48" t="s">
         <v>216</v>
@@ -23394,7 +23462,7 @@
         <v>55055</v>
       </c>
       <c r="AI42" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ42" s="48" t="s">
         <v>216</v>
@@ -23506,7 +23574,7 @@
         <v>55055</v>
       </c>
       <c r="AI43" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ43" s="48" t="s">
         <v>216</v>
@@ -23954,7 +24022,7 @@
         <v>55055</v>
       </c>
       <c r="AI47" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ47" s="48" t="s">
         <v>216</v>
@@ -24066,7 +24134,7 @@
         <v>55055</v>
       </c>
       <c r="AI48" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ48" s="48" t="s">
         <v>216</v>
@@ -24178,7 +24246,7 @@
         <v>55055</v>
       </c>
       <c r="AI49" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ49" s="48" t="s">
         <v>216</v>
@@ -25074,7 +25142,7 @@
         <v>55055</v>
       </c>
       <c r="AI57" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ57" s="48" t="s">
         <v>216</v>
@@ -25186,7 +25254,7 @@
         <v>55055</v>
       </c>
       <c r="AI58" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ58" s="48" t="s">
         <v>216</v>
@@ -25298,7 +25366,7 @@
         <v>55055</v>
       </c>
       <c r="AI59" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ59" s="48" t="s">
         <v>216</v>
@@ -25410,7 +25478,7 @@
         <v>55055</v>
       </c>
       <c r="AI60" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ60" s="48" t="s">
         <v>216</v>
@@ -25522,7 +25590,7 @@
         <v>55055</v>
       </c>
       <c r="AI61" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ61" s="48" t="s">
         <v>216</v>
@@ -25634,7 +25702,7 @@
         <v>55055</v>
       </c>
       <c r="AI62" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ62" s="48" t="s">
         <v>216</v>
@@ -25746,7 +25814,7 @@
         <v>55055</v>
       </c>
       <c r="AI63" s="48" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ63" s="48" t="s">
         <v>216</v>
@@ -25759,16 +25827,16 @@
         <v>createAndConfirmGuidedBookingParcellessthan16OZ_STANDARD_NA_Domestic</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C64" s="50" t="s">
         <v>192</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E64" s="50" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F64" s="50" t="b">
         <v>1</v>
@@ -25786,13 +25854,13 @@
         <v>35</v>
       </c>
       <c r="K64" s="50" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="L64" s="50">
         <v>10</v>
       </c>
       <c r="M64" s="50" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="N64" s="50">
         <v>1</v>
@@ -25807,7 +25875,7 @@
         <v>10</v>
       </c>
       <c r="R64" s="50" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S64" s="50" t="s">
         <v>19</v>
@@ -25870,16 +25938,16 @@
         <v>createAndConfirmGuidedBookingParcellessthan16OZ_DSH_NA_Domestic</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C65" s="50" t="s">
         <v>113</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E65" s="50" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F65" s="50" t="b">
         <v>1</v>
@@ -25897,13 +25965,13 @@
         <v>35</v>
       </c>
       <c r="K65" s="50" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="L65" s="50">
         <v>10</v>
       </c>
       <c r="M65" s="50" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="N65" s="50">
         <v>1</v>
@@ -25924,13 +25992,13 @@
         <v>19</v>
       </c>
       <c r="T65" s="50" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U65" s="50" t="s">
         <v>20</v>
       </c>
       <c r="V65" s="50" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W65" s="50">
         <v>2</v>
@@ -25981,16 +26049,16 @@
         <v>createAndConfirmGuidedBookingParcellessthan16OZ_DMD_NA_Domestic</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C66" s="50" t="s">
         <v>163</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F66" s="50" t="b">
         <v>1</v>
@@ -26008,13 +26076,13 @@
         <v>35</v>
       </c>
       <c r="K66" s="50" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="L66" s="50">
         <v>10</v>
       </c>
       <c r="M66" s="50" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="N66" s="50">
         <v>1</v>
@@ -26029,7 +26097,7 @@
         <v>10</v>
       </c>
       <c r="R66" s="50" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S66" s="50" t="s">
         <v>19</v>
@@ -26092,16 +26160,16 @@
         <v>createAndConfirmGuidedBookingParcellessthan16OZ_GENERAL_NA_International</v>
       </c>
       <c r="B67" s="50" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D67" s="51" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F67" s="50" t="b">
         <v>1</v>
@@ -26119,13 +26187,13 @@
         <v>35</v>
       </c>
       <c r="K67" s="50" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="L67" s="50">
         <v>10</v>
       </c>
       <c r="M67" s="50" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="N67" s="50">
         <v>1</v>
@@ -26146,13 +26214,13 @@
         <v>19</v>
       </c>
       <c r="T67" s="50" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U67" s="50" t="s">
         <v>20</v>
       </c>
       <c r="V67" s="50" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W67" s="50">
         <v>2</v>
@@ -26191,7 +26259,7 @@
         <v>55055</v>
       </c>
       <c r="AI67" s="15" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ67" s="15" t="s">
         <v>216</v>
@@ -26203,16 +26271,16 @@
         <v>createAndConfirmGuidedBookingParcellessthan16OZ_EXPRESS_NA_International</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E68" s="50" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F68" s="50" t="b">
         <v>1</v>
@@ -26230,13 +26298,13 @@
         <v>35</v>
       </c>
       <c r="K68" s="50" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="L68" s="50">
         <v>10</v>
       </c>
       <c r="M68" s="50" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="N68" s="50">
         <v>1</v>
@@ -26251,7 +26319,7 @@
         <v>10</v>
       </c>
       <c r="R68" s="50" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S68" s="50" t="s">
         <v>19</v>
@@ -26302,7 +26370,7 @@
         <v>55055</v>
       </c>
       <c r="AI68" s="15" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ68" s="15" t="s">
         <v>216</v>
@@ -26314,16 +26382,16 @@
         <v>createAndConfirmGuidedBookingParcellessthan16OZ_CRITICAL_NA_International</v>
       </c>
       <c r="B69" s="50" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E69" s="50" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F69" s="50" t="b">
         <v>1</v>
@@ -26341,13 +26409,13 @@
         <v>35</v>
       </c>
       <c r="K69" s="50" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
       <c r="L69" s="50">
         <v>10</v>
       </c>
       <c r="M69" s="50" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="N69" s="50">
         <v>1</v>
@@ -26368,13 +26436,13 @@
         <v>19</v>
       </c>
       <c r="T69" s="50" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U69" s="50" t="s">
         <v>20</v>
       </c>
       <c r="V69" s="50" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W69" s="50">
         <v>2</v>
@@ -26413,7 +26481,7 @@
         <v>55055</v>
       </c>
       <c r="AI69" s="15" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ69" s="15" t="s">
         <v>216</v>
@@ -26425,16 +26493,16 @@
         <v>createAndConfirmGuidedBookingParcels_STANDARD_NA_Domestic</v>
       </c>
       <c r="B70" s="52" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C70" s="52" t="s">
         <v>192</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F70" s="52" t="b">
         <v>1</v>
@@ -26452,10 +26520,10 @@
         <v>35</v>
       </c>
       <c r="K70" s="52" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="L70" s="52">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M70" s="52" t="s">
         <v>198</v>
@@ -26473,13 +26541,13 @@
         <v>10</v>
       </c>
       <c r="R70" s="52" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S70" s="52" t="s">
         <v>35</v>
       </c>
       <c r="T70" s="52" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U70" s="52" t="s">
         <v>20</v>
@@ -26539,16 +26607,16 @@
         <v>createAndConfirmGuidedBookingParcels_DSH_NA_Domestic</v>
       </c>
       <c r="B71" s="52" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C71" s="52" t="s">
         <v>113</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F71" s="52" t="b">
         <v>1</v>
@@ -26557,25 +26625,25 @@
         <v>35</v>
       </c>
       <c r="H71" s="52" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I71" s="52" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J71" s="52" t="s">
         <v>35</v>
       </c>
       <c r="K71" s="52" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="L71" s="52">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M71" s="52" t="s">
         <v>145</v>
       </c>
       <c r="N71" s="52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71" s="52">
         <v>10</v>
@@ -26599,7 +26667,7 @@
         <v>20</v>
       </c>
       <c r="V71" s="52" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W71" s="52">
         <v>2</v>
@@ -26653,16 +26721,16 @@
         <v>createAndConfirmGuidedBookingParcels_DMD_NA_Domestic</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C72" s="52" t="s">
         <v>163</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E72" s="52" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F72" s="52" t="b">
         <v>1</v>
@@ -26680,16 +26748,16 @@
         <v>35</v>
       </c>
       <c r="K72" s="52" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="L72" s="52">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="M72" s="52" t="s">
         <v>198</v>
       </c>
       <c r="N72" s="52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O72" s="52">
         <v>10</v>
@@ -26701,13 +26769,13 @@
         <v>10</v>
       </c>
       <c r="R72" s="52" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S72" s="52" t="s">
         <v>35</v>
       </c>
       <c r="T72" s="52" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U72" s="52" t="s">
         <v>20</v>
@@ -26767,16 +26835,16 @@
         <v>createAndConfirmGuidedBookingParcels_GENERAL_NA_International</v>
       </c>
       <c r="B73" s="52" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E73" s="52" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F73" s="52" t="b">
         <v>1</v>
@@ -26794,10 +26862,10 @@
         <v>35</v>
       </c>
       <c r="K73" s="52" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="L73" s="52">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M73" s="52" t="s">
         <v>145</v>
@@ -26827,7 +26895,7 @@
         <v>20</v>
       </c>
       <c r="V73" s="52" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W73" s="52">
         <v>2</v>
@@ -26866,7 +26934,7 @@
         <v>55055</v>
       </c>
       <c r="AI73" s="54" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ73" s="54" t="s">
         <v>216</v>
@@ -26881,16 +26949,16 @@
         <v>createAndConfirmGuidedBookingParcels_EXPRESS_NA_International</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F74" s="52" t="b">
         <v>1</v>
@@ -26908,10 +26976,10 @@
         <v>35</v>
       </c>
       <c r="K74" s="52" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="L74" s="52">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M74" s="52" t="s">
         <v>198</v>
@@ -26929,13 +26997,13 @@
         <v>10</v>
       </c>
       <c r="R74" s="52" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S74" s="52" t="s">
         <v>35</v>
       </c>
       <c r="T74" s="52" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U74" s="52" t="s">
         <v>20</v>
@@ -26980,7 +27048,7 @@
         <v>55055</v>
       </c>
       <c r="AI74" s="54" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ74" s="54" t="s">
         <v>216</v>
@@ -26995,16 +27063,16 @@
         <v>createAndConfirmGuidedBookingParcels_CRITICAL_NA_International</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F75" s="52" t="b">
         <v>1</v>
@@ -27022,10 +27090,10 @@
         <v>35</v>
       </c>
       <c r="K75" s="52" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="L75" s="52">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M75" s="52" t="s">
         <v>145</v>
@@ -27055,7 +27123,7 @@
         <v>20</v>
       </c>
       <c r="V75" s="52" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W75" s="52">
         <v>2</v>
@@ -27094,7 +27162,7 @@
         <v>55055</v>
       </c>
       <c r="AI75" s="54" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ75" s="54" t="s">
         <v>216</v>
@@ -27106,19 +27174,19 @@
     <row r="76" spans="1:38" s="55" customFormat="1">
       <c r="A76" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_LIVE_Bird_Domestic</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_LIVE_Bird_Domestic</v>
       </c>
       <c r="B76" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C76" s="55" t="s">
         <v>230</v>
       </c>
       <c r="D76" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E76" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F76" s="55" t="b">
         <v>1</v>
@@ -27136,7 +27204,7 @@
         <v>223</v>
       </c>
       <c r="K76" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L76" s="55">
         <v>10</v>
@@ -27157,7 +27225,7 @@
         <v>10</v>
       </c>
       <c r="R76" s="55" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S76" s="55" t="s">
         <v>19</v>
@@ -27217,19 +27285,19 @@
     <row r="77" spans="1:38" s="55" customFormat="1">
       <c r="A77" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_LIVE_Cat_Domestic</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_LIVE_Cat_Domestic</v>
       </c>
       <c r="B77" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C77" s="55" t="s">
         <v>230</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F77" s="55" t="b">
         <v>1</v>
@@ -27247,10 +27315,10 @@
         <v>39</v>
       </c>
       <c r="K77" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L77" s="55">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M77" s="55" t="s">
         <v>145</v>
@@ -27274,13 +27342,13 @@
         <v>19</v>
       </c>
       <c r="T77" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U77" s="55" t="s">
         <v>20</v>
       </c>
       <c r="V77" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W77" s="55">
         <v>3</v>
@@ -27328,19 +27396,19 @@
     <row r="78" spans="1:38" s="55" customFormat="1">
       <c r="A78" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_LIVE_ColdBloodedAnimal_Domestic</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_LIVE_ColdBloodedAnimal_Domestic</v>
       </c>
       <c r="B78" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C78" s="55" t="s">
         <v>230</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F78" s="55" t="b">
         <v>1</v>
@@ -27358,10 +27426,10 @@
         <v>274</v>
       </c>
       <c r="K78" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L78" s="55">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M78" s="55" t="s">
         <v>198</v>
@@ -27379,7 +27447,7 @@
         <v>10</v>
       </c>
       <c r="R78" s="55" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S78" s="55" t="s">
         <v>19</v>
@@ -27439,19 +27507,19 @@
     <row r="79" spans="1:38" s="55" customFormat="1">
       <c r="A79" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_LIVE_Dog_Domestic</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_LIVE_Dog_Domestic</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C79" s="55" t="s">
         <v>230</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F79" s="55" t="b">
         <v>1</v>
@@ -27469,10 +27537,10 @@
         <v>275</v>
       </c>
       <c r="K79" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L79" s="55">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M79" s="55" t="s">
         <v>145</v>
@@ -27496,13 +27564,13 @@
         <v>19</v>
       </c>
       <c r="T79" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U79" s="55" t="s">
         <v>20</v>
       </c>
       <c r="V79" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W79" s="55">
         <v>5</v>
@@ -27550,19 +27618,19 @@
     <row r="80" spans="1:38" s="55" customFormat="1">
       <c r="A80" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_LIVE_HatchingEggs_Domestic</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_LIVE_HatchingEggs_Domestic</v>
       </c>
       <c r="B80" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C80" s="55" t="s">
         <v>230</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F80" s="55" t="b">
         <v>1</v>
@@ -27580,10 +27648,10 @@
         <v>229</v>
       </c>
       <c r="K80" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L80" s="55">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M80" s="55" t="s">
         <v>198</v>
@@ -27601,7 +27669,7 @@
         <v>10</v>
       </c>
       <c r="R80" s="55" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S80" s="55" t="s">
         <v>19</v>
@@ -27661,19 +27729,19 @@
     <row r="81" spans="1:36" s="55" customFormat="1">
       <c r="A81" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_LIVE_WarmBloodedAnimal_Domestic</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_LIVE_WarmBloodedAnimal_Domestic</v>
       </c>
       <c r="B81" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C81" s="55" t="s">
         <v>230</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F81" s="55" t="b">
         <v>1</v>
@@ -27685,16 +27753,16 @@
         <v>142</v>
       </c>
       <c r="I81" s="55" t="s">
-        <v>165</v>
+        <v>404</v>
       </c>
       <c r="J81" s="55" t="s">
         <v>276</v>
       </c>
       <c r="K81" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L81" s="55">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M81" s="55" t="s">
         <v>145</v>
@@ -27718,13 +27786,13 @@
         <v>19</v>
       </c>
       <c r="T81" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U81" s="55" t="s">
         <v>20</v>
       </c>
       <c r="V81" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W81" s="55">
         <v>7</v>
@@ -27772,19 +27840,19 @@
     <row r="82" spans="1:36" s="55" customFormat="1">
       <c r="A82" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_Bird_International</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_Bird_International</v>
       </c>
       <c r="B82" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C82" s="55" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F82" s="55" t="b">
         <v>1</v>
@@ -27802,7 +27870,7 @@
         <v>223</v>
       </c>
       <c r="K82" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L82" s="55">
         <v>10</v>
@@ -27823,7 +27891,7 @@
         <v>10</v>
       </c>
       <c r="R82" s="55" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S82" s="55" t="s">
         <v>19</v>
@@ -27874,7 +27942,7 @@
         <v>55055</v>
       </c>
       <c r="AI82" s="57" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ82" s="57" t="s">
         <v>216</v>
@@ -27883,19 +27951,19 @@
     <row r="83" spans="1:36" s="55" customFormat="1">
       <c r="A83" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_Cat_International</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_Cat_International</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F83" s="55" t="b">
         <v>1</v>
@@ -27913,10 +27981,10 @@
         <v>39</v>
       </c>
       <c r="K83" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L83" s="55">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M83" s="55" t="s">
         <v>145</v>
@@ -27940,13 +28008,13 @@
         <v>19</v>
       </c>
       <c r="T83" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U83" s="55" t="s">
         <v>20</v>
       </c>
       <c r="V83" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W83" s="55">
         <v>3</v>
@@ -27985,7 +28053,7 @@
         <v>55055</v>
       </c>
       <c r="AI83" s="57" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ83" s="57" t="s">
         <v>216</v>
@@ -27994,19 +28062,19 @@
     <row r="84" spans="1:36" s="55" customFormat="1">
       <c r="A84" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_ColdBloodedAnimal_International</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_ColdBloodedAnimal_International</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F84" s="55" t="b">
         <v>1</v>
@@ -28024,10 +28092,10 @@
         <v>274</v>
       </c>
       <c r="K84" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L84" s="55">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="M84" s="55" t="s">
         <v>198</v>
@@ -28045,7 +28113,7 @@
         <v>10</v>
       </c>
       <c r="R84" s="55" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S84" s="55" t="s">
         <v>19</v>
@@ -28096,7 +28164,7 @@
         <v>55055</v>
       </c>
       <c r="AI84" s="57" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ84" s="57" t="s">
         <v>216</v>
@@ -28105,19 +28173,19 @@
     <row r="85" spans="1:36" s="55" customFormat="1">
       <c r="A85" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_Dog_International</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_Dog_International</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E85" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F85" s="55" t="b">
         <v>1</v>
@@ -28135,10 +28203,10 @@
         <v>275</v>
       </c>
       <c r="K85" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L85" s="55">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M85" s="55" t="s">
         <v>145</v>
@@ -28162,13 +28230,13 @@
         <v>19</v>
       </c>
       <c r="T85" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U85" s="55" t="s">
         <v>20</v>
       </c>
       <c r="V85" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W85" s="55">
         <v>5</v>
@@ -28207,7 +28275,7 @@
         <v>55055</v>
       </c>
       <c r="AI85" s="57" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ85" s="57" t="s">
         <v>216</v>
@@ -28216,19 +28284,19 @@
     <row r="86" spans="1:36" s="55" customFormat="1">
       <c r="A86" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_HatchingEggs_International</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_HatchingEggs_International</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C86" s="55" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F86" s="55" t="b">
         <v>1</v>
@@ -28246,10 +28314,10 @@
         <v>229</v>
       </c>
       <c r="K86" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L86" s="55">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M86" s="55" t="s">
         <v>198</v>
@@ -28267,7 +28335,7 @@
         <v>10</v>
       </c>
       <c r="R86" s="55" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S86" s="55" t="s">
         <v>19</v>
@@ -28318,7 +28386,7 @@
         <v>55055</v>
       </c>
       <c r="AI86" s="57" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ86" s="57" t="s">
         <v>216</v>
@@ -28327,19 +28395,19 @@
     <row r="87" spans="1:36" s="55" customFormat="1">
       <c r="A87" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingPets_and_Live_SPECIALIZED_LIVE_WarmBloodedAnimal_International</v>
+        <v>createAndConfirmGuidedBookingPetsandLive_SPECIALIZED_LIVE_WarmBloodedAnimal_International</v>
       </c>
       <c r="B87" s="55" t="s">
-        <v>277</v>
+        <v>405</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D87" s="56" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F87" s="55" t="b">
         <v>1</v>
@@ -28357,10 +28425,10 @@
         <v>276</v>
       </c>
       <c r="K87" s="55" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="L87" s="55">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="M87" s="55" t="s">
         <v>145</v>
@@ -28384,13 +28452,13 @@
         <v>19</v>
       </c>
       <c r="T87" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U87" s="55" t="s">
         <v>20</v>
       </c>
       <c r="V87" s="55" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W87" s="55">
         <v>7</v>
@@ -28429,7 +28497,7 @@
         <v>55055</v>
       </c>
       <c r="AI87" s="57" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ87" s="57" t="s">
         <v>216</v>
@@ -28447,10 +28515,10 @@
         <v>190</v>
       </c>
       <c r="D88" s="58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F88" s="1" t="b">
         <v>1</v>
@@ -28468,7 +28536,7 @@
         <v>57</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L88" s="1">
         <v>11</v>
@@ -28489,7 +28557,7 @@
         <v>10</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>35</v>
@@ -28510,7 +28578,7 @@
         <v>20</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="Z88" s="48" t="s">
         <v>23</v>
@@ -28558,10 +28626,10 @@
         <v>190</v>
       </c>
       <c r="D89" s="58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F89" s="1" t="b">
         <v>1</v>
@@ -28570,16 +28638,16 @@
         <v>35</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>142</v>
+        <v>402</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>115</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L89" s="1">
         <v>12</v>
@@ -28669,10 +28737,10 @@
         <v>113</v>
       </c>
       <c r="D90" s="58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F90" s="1" t="b">
         <v>1</v>
@@ -28681,16 +28749,16 @@
         <v>35</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>142</v>
+        <v>403</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L90" s="1">
         <v>13</v>
@@ -28711,7 +28779,7 @@
         <v>10</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S90" s="1" t="s">
         <v>19</v>
@@ -28780,10 +28848,10 @@
         <v>166</v>
       </c>
       <c r="D91" s="58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F91" s="1" t="b">
         <v>1</v>
@@ -28801,7 +28869,7 @@
         <v>69</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L91" s="1">
         <v>14</v>
@@ -28891,10 +28959,10 @@
         <v>163</v>
       </c>
       <c r="D92" s="58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F92" s="1" t="b">
         <v>1</v>
@@ -28903,16 +28971,16 @@
         <v>35</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>142</v>
+        <v>403</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>165</v>
+        <v>297</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L92" s="1">
         <v>15</v>
@@ -28933,7 +29001,7 @@
         <v>10</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>19</v>
@@ -29002,10 +29070,10 @@
         <v>190</v>
       </c>
       <c r="D93" s="58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F93" s="1" t="b">
         <v>1</v>
@@ -29023,7 +29091,7 @@
         <v>57</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L93" s="1">
         <v>10</v>
@@ -29065,7 +29133,7 @@
         <v>20</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="Z93" s="48" t="s">
         <v>23</v>
@@ -29095,7 +29163,7 @@
         <v>55055</v>
       </c>
       <c r="AI93" s="59" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ93" s="59" t="s">
         <v>216</v>
@@ -29113,10 +29181,10 @@
         <v>190</v>
       </c>
       <c r="D94" s="58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F94" s="1" t="b">
         <v>1</v>
@@ -29134,7 +29202,7 @@
         <v>115</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L94" s="1">
         <v>11</v>
@@ -29155,7 +29223,7 @@
         <v>10</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S94" s="1" t="s">
         <v>19</v>
@@ -29206,7 +29274,7 @@
         <v>55055</v>
       </c>
       <c r="AI94" s="59" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ94" s="59" t="s">
         <v>216</v>
@@ -29221,13 +29289,13 @@
         <v>27</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D95" s="58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F95" s="1" t="b">
         <v>1</v>
@@ -29245,7 +29313,7 @@
         <v>116</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L95" s="1">
         <v>12</v>
@@ -29317,7 +29385,7 @@
         <v>55055</v>
       </c>
       <c r="AI95" s="59" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ95" s="59" t="s">
         <v>216</v>
@@ -29332,13 +29400,13 @@
         <v>27</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D96" s="58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F96" s="1" t="b">
         <v>1</v>
@@ -29356,7 +29424,7 @@
         <v>69</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L96" s="1">
         <v>13</v>
@@ -29377,7 +29445,7 @@
         <v>10</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>19</v>
@@ -29428,7 +29496,7 @@
         <v>55055</v>
       </c>
       <c r="AI96" s="59" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ96" s="59" t="s">
         <v>216</v>
@@ -29443,13 +29511,13 @@
         <v>27</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D97" s="58" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F97" s="1" t="b">
         <v>1</v>
@@ -29467,7 +29535,7 @@
         <v>117</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="L97" s="1">
         <v>14</v>
@@ -29539,7 +29607,7 @@
         <v>55055</v>
       </c>
       <c r="AI97" s="59" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ97" s="59" t="s">
         <v>216</v>
@@ -29557,10 +29625,10 @@
         <v>176</v>
       </c>
       <c r="D98" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E98" s="60" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F98" s="60" t="b">
         <v>1</v>
@@ -29569,16 +29637,16 @@
         <v>35</v>
       </c>
       <c r="H98" s="60" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="I98" s="60" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="J98" s="60" t="s">
         <v>54</v>
       </c>
       <c r="K98" s="60" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="L98" s="60">
         <v>11</v>
@@ -29620,7 +29688,7 @@
         <v>20</v>
       </c>
       <c r="Y98" s="60" t="s">
-        <v>35</v>
+        <v>395</v>
       </c>
       <c r="Z98" s="48" t="s">
         <v>23</v>
@@ -29668,10 +29736,10 @@
         <v>176</v>
       </c>
       <c r="D99" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E99" s="60" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F99" s="60" t="b">
         <v>1</v>
@@ -29683,13 +29751,13 @@
         <v>164</v>
       </c>
       <c r="I99" s="60" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="J99" s="60" t="s">
         <v>175</v>
       </c>
       <c r="K99" s="60" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="L99" s="60">
         <v>12</v>
@@ -29731,7 +29799,7 @@
         <v>20</v>
       </c>
       <c r="Y99" s="60" t="s">
-        <v>35</v>
+        <v>396</v>
       </c>
       <c r="Z99" s="48" t="s">
         <v>23</v>
@@ -29779,10 +29847,10 @@
         <v>176</v>
       </c>
       <c r="D100" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E100" s="60" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F100" s="60" t="b">
         <v>1</v>
@@ -29791,25 +29859,25 @@
         <v>35</v>
       </c>
       <c r="H100" s="60" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I100" s="60" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J100" s="60" t="s">
         <v>63</v>
       </c>
       <c r="K100" s="60" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="L100" s="60">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M100" s="60" t="s">
         <v>198</v>
       </c>
       <c r="N100" s="60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O100" s="60">
         <v>10</v>
@@ -29821,7 +29889,7 @@
         <v>10</v>
       </c>
       <c r="R100" s="60" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S100" s="60" t="s">
         <v>35</v>
@@ -29890,10 +29958,10 @@
         <v>176</v>
       </c>
       <c r="D101" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E101" s="60" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F101" s="60" t="b">
         <v>1</v>
@@ -29902,34 +29970,34 @@
         <v>35</v>
       </c>
       <c r="H101" s="60" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="I101" s="60" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="J101" s="60" t="s">
         <v>193</v>
       </c>
       <c r="K101" s="60" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="L101" s="60">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="M101" s="60" t="s">
         <v>145</v>
       </c>
       <c r="N101" s="60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101" s="60">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P101" s="60">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q101" s="60">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R101" s="60" t="s">
         <v>152</v>
@@ -29938,13 +30006,13 @@
         <v>35</v>
       </c>
       <c r="T101" s="60" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="U101" s="60" t="s">
         <v>20</v>
       </c>
       <c r="V101" s="60" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W101" s="60">
         <v>6</v>
@@ -30001,10 +30069,10 @@
         <v>176</v>
       </c>
       <c r="D102" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E102" s="60" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F102" s="60" t="b">
         <v>1</v>
@@ -30016,34 +30084,34 @@
         <v>142</v>
       </c>
       <c r="I102" s="60" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J102" s="60" t="s">
         <v>194</v>
       </c>
       <c r="K102" s="60" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="L102" s="60">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="M102" s="60" t="s">
         <v>198</v>
       </c>
       <c r="N102" s="60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O102" s="60">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P102" s="60">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q102" s="60">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R102" s="60" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S102" s="60" t="s">
         <v>35</v>
@@ -30055,7 +30123,7 @@
         <v>20</v>
       </c>
       <c r="V102" s="60" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="W102" s="60">
         <v>7</v>
@@ -30112,10 +30180,10 @@
         <v>176</v>
       </c>
       <c r="D103" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E103" s="60" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F103" s="60" t="b">
         <v>1</v>
@@ -30124,16 +30192,16 @@
         <v>35</v>
       </c>
       <c r="H103" s="60" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="I103" s="60" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="J103" s="60" t="s">
         <v>54</v>
       </c>
       <c r="K103" s="60" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="L103" s="60">
         <v>10</v>
@@ -30205,7 +30273,7 @@
         <v>55055</v>
       </c>
       <c r="AI103" s="62" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ103" s="62" t="s">
         <v>216</v>
@@ -30223,10 +30291,10 @@
         <v>176</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E104" s="60" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F104" s="60" t="b">
         <v>1</v>
@@ -30235,16 +30303,16 @@
         <v>35</v>
       </c>
       <c r="H104" s="60" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I104" s="60" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="J104" s="60" t="s">
         <v>175</v>
       </c>
       <c r="K104" s="60" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="L104" s="60">
         <v>11</v>
@@ -30316,7 +30384,7 @@
         <v>55055</v>
       </c>
       <c r="AI104" s="62" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ104" s="62" t="s">
         <v>216</v>
@@ -30334,10 +30402,10 @@
         <v>176</v>
       </c>
       <c r="D105" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E105" s="60" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F105" s="60" t="b">
         <v>1</v>
@@ -30346,16 +30414,16 @@
         <v>35</v>
       </c>
       <c r="H105" s="60" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="I105" s="60" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="J105" s="60" t="s">
         <v>63</v>
       </c>
       <c r="K105" s="60" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="L105" s="60">
         <v>12</v>
@@ -30427,7 +30495,7 @@
         <v>55055</v>
       </c>
       <c r="AI105" s="62" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ105" s="62" t="s">
         <v>216</v>
@@ -30445,10 +30513,10 @@
         <v>176</v>
       </c>
       <c r="D106" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E106" s="60" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F106" s="60" t="b">
         <v>1</v>
@@ -30457,16 +30525,16 @@
         <v>35</v>
       </c>
       <c r="H106" s="60" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="I106" s="60" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="J106" s="60" t="s">
         <v>193</v>
       </c>
       <c r="K106" s="60" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="L106" s="60">
         <v>13</v>
@@ -30487,7 +30555,7 @@
         <v>10</v>
       </c>
       <c r="R106" s="60" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S106" s="60" t="s">
         <v>35</v>
@@ -30538,7 +30606,7 @@
         <v>55055</v>
       </c>
       <c r="AI106" s="62" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ106" s="62" t="s">
         <v>216</v>
@@ -30556,10 +30624,10 @@
         <v>176</v>
       </c>
       <c r="D107" s="61" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E107" s="60" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F107" s="60" t="b">
         <v>1</v>
@@ -30568,7 +30636,7 @@
         <v>35</v>
       </c>
       <c r="H107" s="60" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="I107" s="60" t="s">
         <v>142</v>
@@ -30577,7 +30645,7 @@
         <v>194</v>
       </c>
       <c r="K107" s="60" t="s">
-        <v>197</v>
+        <v>391</v>
       </c>
       <c r="L107" s="60">
         <v>14</v>
@@ -30667,10 +30735,10 @@
         <v>163</v>
       </c>
       <c r="D108" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E108" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F108" s="63" t="b">
         <v>1</v>
@@ -30688,10 +30756,10 @@
         <v>177</v>
       </c>
       <c r="K108" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L108" s="63">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M108" s="63" t="s">
         <v>198</v>
@@ -30709,7 +30777,7 @@
         <v>10</v>
       </c>
       <c r="R108" s="63" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S108" s="63" t="s">
         <v>19</v>
@@ -30778,10 +30846,10 @@
         <v>163</v>
       </c>
       <c r="D109" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E109" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F109" s="63" t="b">
         <v>1</v>
@@ -30790,19 +30858,19 @@
         <v>35</v>
       </c>
       <c r="H109" s="63" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="I109" s="63" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J109" s="63" t="s">
         <v>178</v>
       </c>
       <c r="K109" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L109" s="63">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M109" s="63" t="s">
         <v>145</v>
@@ -30823,7 +30891,7 @@
         <v>152</v>
       </c>
       <c r="S109" s="63" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="T109" s="63" t="s">
         <v>20</v>
@@ -30889,10 +30957,10 @@
         <v>163</v>
       </c>
       <c r="D110" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E110" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F110" s="63" t="b">
         <v>1</v>
@@ -30901,19 +30969,19 @@
         <v>35</v>
       </c>
       <c r="H110" s="63" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="I110" s="63" t="s">
-        <v>165</v>
+        <v>401</v>
       </c>
       <c r="J110" s="63" t="s">
         <v>179</v>
       </c>
       <c r="K110" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L110" s="63">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M110" s="63" t="s">
         <v>198</v>
@@ -30931,7 +30999,7 @@
         <v>10</v>
       </c>
       <c r="R110" s="63" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S110" s="63" t="s">
         <v>19</v>
@@ -31000,10 +31068,10 @@
         <v>163</v>
       </c>
       <c r="D111" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E111" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F111" s="63" t="b">
         <v>1</v>
@@ -31012,7 +31080,7 @@
         <v>35</v>
       </c>
       <c r="H111" s="63" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="I111" s="63" t="s">
         <v>165</v>
@@ -31021,10 +31089,10 @@
         <v>180</v>
       </c>
       <c r="K111" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L111" s="63">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M111" s="63" t="s">
         <v>145</v>
@@ -31045,7 +31113,7 @@
         <v>152</v>
       </c>
       <c r="S111" s="63" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="T111" s="63" t="s">
         <v>20</v>
@@ -31111,10 +31179,10 @@
         <v>113</v>
       </c>
       <c r="D112" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E112" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F112" s="63" t="b">
         <v>1</v>
@@ -31126,16 +31194,16 @@
         <v>142</v>
       </c>
       <c r="I112" s="63" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J112" s="63" t="s">
         <v>181</v>
       </c>
       <c r="K112" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L112" s="63">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M112" s="63" t="s">
         <v>198</v>
@@ -31153,7 +31221,7 @@
         <v>10</v>
       </c>
       <c r="R112" s="63" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S112" s="63" t="s">
         <v>19</v>
@@ -31222,10 +31290,10 @@
         <v>166</v>
       </c>
       <c r="D113" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E113" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F113" s="63" t="b">
         <v>1</v>
@@ -31243,10 +31311,10 @@
         <v>182</v>
       </c>
       <c r="K113" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L113" s="63">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M113" s="63" t="s">
         <v>145</v>
@@ -31267,7 +31335,7 @@
         <v>152</v>
       </c>
       <c r="S113" s="63" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="T113" s="63" t="s">
         <v>20</v>
@@ -31315,7 +31383,7 @@
         <v>55055</v>
       </c>
       <c r="AI113" s="65" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ113" s="65" t="s">
         <v>216</v>
@@ -31330,13 +31398,13 @@
         <v>44</v>
       </c>
       <c r="C114" s="63" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D114" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E114" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F114" s="63" t="b">
         <v>1</v>
@@ -31354,10 +31422,10 @@
         <v>177</v>
       </c>
       <c r="K114" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L114" s="63">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M114" s="63" t="s">
         <v>198</v>
@@ -31375,7 +31443,7 @@
         <v>10</v>
       </c>
       <c r="R114" s="63" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S114" s="63" t="s">
         <v>19</v>
@@ -31426,7 +31494,7 @@
         <v>55055</v>
       </c>
       <c r="AI114" s="65" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ114" s="65" t="s">
         <v>216</v>
@@ -31441,13 +31509,13 @@
         <v>44</v>
       </c>
       <c r="C115" s="63" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D115" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E115" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F115" s="63" t="b">
         <v>1</v>
@@ -31465,10 +31533,10 @@
         <v>178</v>
       </c>
       <c r="K115" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L115" s="63">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="M115" s="63" t="s">
         <v>145</v>
@@ -31489,7 +31557,7 @@
         <v>152</v>
       </c>
       <c r="S115" s="63" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="T115" s="63" t="s">
         <v>20</v>
@@ -31537,7 +31605,7 @@
         <v>55055</v>
       </c>
       <c r="AI115" s="65" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ115" s="65" t="s">
         <v>216</v>
@@ -31552,13 +31620,13 @@
         <v>44</v>
       </c>
       <c r="C116" s="63" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D116" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E116" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F116" s="63" t="b">
         <v>1</v>
@@ -31576,10 +31644,10 @@
         <v>179</v>
       </c>
       <c r="K116" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L116" s="63">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="M116" s="63" t="s">
         <v>198</v>
@@ -31597,7 +31665,7 @@
         <v>10</v>
       </c>
       <c r="R116" s="63" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S116" s="63" t="s">
         <v>19</v>
@@ -31648,7 +31716,7 @@
         <v>55055</v>
       </c>
       <c r="AI116" s="65" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ116" s="65" t="s">
         <v>216</v>
@@ -31663,13 +31731,13 @@
         <v>44</v>
       </c>
       <c r="C117" s="63" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D117" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E117" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F117" s="63" t="b">
         <v>1</v>
@@ -31687,10 +31755,10 @@
         <v>180</v>
       </c>
       <c r="K117" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L117" s="63">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="M117" s="63" t="s">
         <v>145</v>
@@ -31711,7 +31779,7 @@
         <v>152</v>
       </c>
       <c r="S117" s="63" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="T117" s="63" t="s">
         <v>20</v>
@@ -31759,7 +31827,7 @@
         <v>55055</v>
       </c>
       <c r="AI117" s="65" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ117" s="65" t="s">
         <v>216</v>
@@ -31774,13 +31842,13 @@
         <v>44</v>
       </c>
       <c r="C118" s="63" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D118" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E118" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F118" s="63" t="b">
         <v>1</v>
@@ -31798,10 +31866,10 @@
         <v>181</v>
       </c>
       <c r="K118" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L118" s="63">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M118" s="63" t="s">
         <v>198</v>
@@ -31819,7 +31887,7 @@
         <v>10</v>
       </c>
       <c r="R118" s="63" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S118" s="63" t="s">
         <v>19</v>
@@ -31870,7 +31938,7 @@
         <v>55055</v>
       </c>
       <c r="AI118" s="65" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ118" s="65" t="s">
         <v>216</v>
@@ -31885,13 +31953,13 @@
         <v>44</v>
       </c>
       <c r="C119" s="63" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D119" s="64" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E119" s="63" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F119" s="63" t="b">
         <v>1</v>
@@ -31909,10 +31977,10 @@
         <v>182</v>
       </c>
       <c r="K119" s="63" t="s">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="L119" s="63">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M119" s="63" t="s">
         <v>145</v>
@@ -31933,7 +32001,7 @@
         <v>152</v>
       </c>
       <c r="S119" s="63" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="T119" s="63" t="s">
         <v>20</v>
@@ -31981,7 +32049,7 @@
         <v>55055</v>
       </c>
       <c r="AI119" s="65" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ119" s="65" t="s">
         <v>216</v>
@@ -31999,10 +32067,10 @@
         <v>185</v>
       </c>
       <c r="D120" s="67" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E120" s="66" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F120" s="66" t="b">
         <v>1</v>
@@ -32020,7 +32088,7 @@
         <v>183</v>
       </c>
       <c r="K120" s="66" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="L120" s="66">
         <v>30</v>
@@ -32041,7 +32109,7 @@
         <v>10</v>
       </c>
       <c r="R120" s="66" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S120" s="66" t="s">
         <v>35</v>
@@ -32110,10 +32178,10 @@
         <v>185</v>
       </c>
       <c r="D121" s="67" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E121" s="66" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F121" s="66" t="b">
         <v>1</v>
@@ -32122,16 +32190,16 @@
         <v>35</v>
       </c>
       <c r="H121" s="66" t="s">
-        <v>142</v>
+        <v>318</v>
       </c>
       <c r="I121" s="66" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J121" s="66" t="s">
         <v>184</v>
       </c>
       <c r="K121" s="66" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="L121" s="66">
         <v>20</v>
@@ -32218,13 +32286,13 @@
         <v>87</v>
       </c>
       <c r="C122" s="66" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D122" s="67" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E122" s="66" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F122" s="66" t="b">
         <v>1</v>
@@ -32236,13 +32304,13 @@
         <v>142</v>
       </c>
       <c r="I122" s="66" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="J122" s="66" t="s">
         <v>183</v>
       </c>
       <c r="K122" s="66" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="L122" s="66">
         <v>50</v>
@@ -32263,7 +32331,7 @@
         <v>10</v>
       </c>
       <c r="R122" s="66" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S122" s="66" t="s">
         <v>35</v>
@@ -32314,7 +32382,7 @@
         <v>55055</v>
       </c>
       <c r="AI122" s="68" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ122" s="68" t="s">
         <v>216</v>
@@ -32329,13 +32397,13 @@
         <v>87</v>
       </c>
       <c r="C123" s="66" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D123" s="67" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E123" s="66" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F123" s="66" t="b">
         <v>1</v>
@@ -32347,13 +32415,13 @@
         <v>142</v>
       </c>
       <c r="I123" s="66" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="J123" s="66" t="s">
         <v>184</v>
       </c>
       <c r="K123" s="66" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="L123" s="66">
         <v>40</v>
@@ -32425,7 +32493,7 @@
         <v>55055</v>
       </c>
       <c r="AI123" s="68" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ123" s="68" t="s">
         <v>216</v>
@@ -32434,19 +32502,19 @@
     <row r="124" spans="1:36" s="69" customFormat="1">
       <c r="A124" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingHuman_Remains_DELTA_CARES_Adult_Domestic</v>
+        <v>createAndConfirmGuidedBookingHumanRemains_DELTA_CARES_Adult_Domestic</v>
       </c>
       <c r="B124" s="69" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="C124" s="69" t="s">
         <v>189</v>
       </c>
       <c r="D124" s="70" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E124" s="69" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F124" s="69" t="b">
         <v>1</v>
@@ -32464,7 +32532,7 @@
         <v>186</v>
       </c>
       <c r="K124" s="69" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="L124" s="69">
         <v>79</v>
@@ -32485,7 +32553,7 @@
         <v>10</v>
       </c>
       <c r="R124" s="69" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S124" s="69" t="s">
         <v>35</v>
@@ -32506,7 +32574,7 @@
         <v>20</v>
       </c>
       <c r="Y124" s="69" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="Z124" s="48" t="s">
         <v>23</v>
@@ -32545,19 +32613,19 @@
     <row r="125" spans="1:36" s="69" customFormat="1">
       <c r="A125" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingHuman_Remains_DELTA_CARES_ChildInfant_Domestic</v>
+        <v>createAndConfirmGuidedBookingHumanRemains_DELTA_CARES_ChildInfant_Domestic</v>
       </c>
       <c r="B125" s="69" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="C125" s="69" t="s">
         <v>189</v>
       </c>
       <c r="D125" s="70" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E125" s="69" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F125" s="69" t="b">
         <v>1</v>
@@ -32575,7 +32643,7 @@
         <v>187</v>
       </c>
       <c r="K125" s="69" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="L125" s="69">
         <v>49</v>
@@ -32617,7 +32685,7 @@
         <v>20</v>
       </c>
       <c r="Y125" s="69" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="Z125" s="48" t="s">
         <v>23</v>
@@ -32656,19 +32724,19 @@
     <row r="126" spans="1:36" s="69" customFormat="1">
       <c r="A126" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingHuman_Remains_DMD_CrematedRemains_Domestic</v>
+        <v>createAndConfirmGuidedBookingHumanRemains_DMD_CrematedRemains_Domestic</v>
       </c>
       <c r="B126" s="69" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="C126" s="69" t="s">
         <v>163</v>
       </c>
       <c r="D126" s="70" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E126" s="69" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F126" s="69" t="b">
         <v>1</v>
@@ -32677,16 +32745,16 @@
         <v>35</v>
       </c>
       <c r="H126" s="69" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I126" s="69" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J126" s="69" t="s">
         <v>188</v>
       </c>
       <c r="K126" s="69" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="L126" s="69">
         <v>59</v>
@@ -32707,7 +32775,7 @@
         <v>10</v>
       </c>
       <c r="R126" s="69" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S126" s="69" t="s">
         <v>35</v>
@@ -32728,7 +32796,7 @@
         <v>20</v>
       </c>
       <c r="Y126" s="69" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="Z126" s="48" t="s">
         <v>23</v>
@@ -32767,19 +32835,19 @@
     <row r="127" spans="1:36" s="69" customFormat="1">
       <c r="A127" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingHuman_Remains_SPECIALIZED_CARE_Adult_International</v>
+        <v>createAndConfirmGuidedBookingHumanRemains_SPECIALIZED_CARE_Adult_International</v>
       </c>
       <c r="B127" s="69" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="C127" s="69" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D127" s="70" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E127" s="69" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F127" s="69" t="b">
         <v>1</v>
@@ -32791,13 +32859,13 @@
         <v>142</v>
       </c>
       <c r="I127" s="69" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="J127" s="69" t="s">
         <v>186</v>
       </c>
       <c r="K127" s="69" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="L127" s="69">
         <v>79</v>
@@ -32839,7 +32907,7 @@
         <v>20</v>
       </c>
       <c r="Y127" s="69" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="Z127" s="48" t="s">
         <v>23</v>
@@ -32869,7 +32937,7 @@
         <v>55055</v>
       </c>
       <c r="AI127" s="71" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ127" s="71" t="s">
         <v>216</v>
@@ -32878,19 +32946,19 @@
     <row r="128" spans="1:36" s="69" customFormat="1">
       <c r="A128" s="69" t="str">
         <f t="shared" si="1"/>
-        <v>createAndConfirmGuidedBookingHuman_Remains_SPECIALIZED_CARE_ChildInfant_International</v>
+        <v>createAndConfirmGuidedBookingHumanRemains_SPECIALIZED_CARE_ChildInfant_International</v>
       </c>
       <c r="B128" s="69" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="C128" s="69" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D128" s="70" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E128" s="69" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F128" s="69" t="b">
         <v>1</v>
@@ -32899,7 +32967,7 @@
         <v>35</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="I128" s="69" t="s">
         <v>142</v>
@@ -32908,7 +32976,7 @@
         <v>187</v>
       </c>
       <c r="K128" s="69" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="L128" s="69">
         <v>49</v>
@@ -32929,7 +32997,7 @@
         <v>10</v>
       </c>
       <c r="R128" s="69" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S128" s="69" t="s">
         <v>35</v>
@@ -32950,7 +33018,7 @@
         <v>20</v>
       </c>
       <c r="Y128" s="69" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="Z128" s="48" t="s">
         <v>23</v>
@@ -32980,7 +33048,7 @@
         <v>55055</v>
       </c>
       <c r="AI128" s="71" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ128" s="71" t="s">
         <v>216</v>
@@ -32989,19 +33057,19 @@
     <row r="129" spans="1:36" s="69" customFormat="1">
       <c r="A129" s="69" t="str">
         <f t="shared" ref="A129" si="2">_xlfn.CONCAT("createAndConfirmGuidedBooking",SUBSTITUTE(B129," ","_"),"_",SUBSTITUTE(C129," ","_"),"_",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(J129," ",""),"-",""),"/",""),"–",""),"+",""),"°",""),",",""),"_",SUBSTITUTE(AJ129," ","_"))</f>
-        <v>createAndConfirmGuidedBookingHuman_Remains_EXPRESS_CrematedRemains_International</v>
+        <v>createAndConfirmGuidedBookingHumanRemains_EXPRESS_CrematedRemains_International</v>
       </c>
       <c r="B129" s="69" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="C129" s="69" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D129" s="70" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E129" s="69" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F129" s="69" t="b">
         <v>1</v>
@@ -33010,7 +33078,7 @@
         <v>35</v>
       </c>
       <c r="H129" s="69" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="I129" s="69" t="s">
         <v>165</v>
@@ -33019,7 +33087,7 @@
         <v>188</v>
       </c>
       <c r="K129" s="69" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="L129" s="69">
         <v>59</v>
@@ -33061,7 +33129,7 @@
         <v>20</v>
       </c>
       <c r="Y129" s="69" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="Z129" s="48" t="s">
         <v>23</v>
@@ -33091,7 +33159,7 @@
         <v>55055</v>
       </c>
       <c r="AI129" s="71" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="AJ129" s="71" t="s">
         <v>216</v>
@@ -41440,21 +41508,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFBCF867C5410147BDDAF2BCA37BA4E7" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e24a40d5ebdbb3b92553f235188d50f6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2981db02-ca81-468a-9abd-70e82312b342" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db49c26ce236f576151feb411775a695" ns2:_="">
     <xsd:import namespace="2981db02-ca81-468a-9abd-70e82312b342"/>
@@ -41586,10 +41639,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD641CF5-135D-42FC-A55D-82791A85B476}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED3BB4E-382D-479A-B77C-6CB5E1CFD30D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2981db02-ca81-468a-9abd-70e82312b342"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -41611,19 +41689,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED3BB4E-382D-479A-B77C-6CB5E1CFD30D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD641CF5-135D-42FC-A55D-82791A85B476}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2981db02-ca81-468a-9abd-70e82312b342"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>